--- a/activities/activity2/UNHDIGDPData.xlsx
+++ b/activities/activity2/UNHDIGDPData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattlang/Dropbox/Matt/2025/Spring/ECON2/Discussion Section Activities/Discussion Activity 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0658E4A-F88A-6645-A1C0-450DCABBFEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D572453-45B7-9142-86C0-5A2158342354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1380" windowWidth="21640" windowHeight="16940" xr2:uid="{A09156FE-7724-B947-B210-4D6E46779537}"/>
+    <workbookView xWindow="57380" yWindow="200" windowWidth="21640" windowHeight="16940" xr2:uid="{A09156FE-7724-B947-B210-4D6E46779537}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
   <si>
     <t>Switzerland</t>
   </si>
@@ -636,6 +636,495 @@
   </si>
   <si>
     <t>GDP per capita, PPP (constant 2021 international $)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>AZE</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>BHS</t>
+  </si>
+  <si>
+    <t>BIH</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>BLZ</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>BRN</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>CYP</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>DJI</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>DZA</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>FJI</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>GAB</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>GNQ</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>GUY</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>HRV</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>ISL</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>JOR</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>KGZ</t>
+  </si>
+  <si>
+    <t>KHM</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>KWT</t>
+  </si>
+  <si>
+    <t>LAO</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>LBY</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>LSO</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>MDG</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>MNE</t>
+  </si>
+  <si>
+    <t>MNG</t>
+  </si>
+  <si>
+    <t>MOZ</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>MWI</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>NCL</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>OMN</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>PRY</t>
+  </si>
+  <si>
+    <t>QAT</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>SLB</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>SRB</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>TGO</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>TJK</t>
+  </si>
+  <si>
+    <t>TKM</t>
+  </si>
+  <si>
+    <t>TTO</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>TZA</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>UZB</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>VUT</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>ZMB</t>
+  </si>
+  <si>
+    <t>ZWE</t>
   </si>
 </sst>
 </file>
@@ -1058,4466 +1547,4956 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91DB451-F17C-434B-A76E-233E6310F842}">
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.33203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="3">
         <v>0.46200000000000002</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>62.878999999999998</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>10.70538475</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>2.514790058</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>1335.205733</v>
       </c>
-      <c r="G2" s="9">
+      <c r="H2" s="9">
         <v>1981.7101681056113</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="3">
         <v>0.78900000000000003</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>76.832999999999998</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>14.487469669999999</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>10.12114431</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>15293.326510000001</v>
       </c>
-      <c r="G3" s="9">
+      <c r="H3" s="9">
         <v>17097.478359980203</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="3">
         <v>0.745</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>77.129000000000005</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>15.487879749999999</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>6.9874436080000004</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>10978.405710000001</v>
       </c>
-      <c r="G4" s="9">
+      <c r="H4" s="9">
         <v>14782.200296889288</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C5" s="3">
         <v>0.88400000000000001</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>83.552000000000007</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>12.7837801</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>11.61343956</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>54233.449480000003</v>
       </c>
-      <c r="G5" s="9">
+      <c r="H5" s="9">
         <v>63913.38350791049</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="3">
         <v>0.59099999999999997</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>61.929000000000002</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>12.1676</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>5.8442916010000001</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>5327.7882509999999</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H6" s="9">
         <v>7397.4864273110534</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
         <v>0.82599999999999996</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>79.236000000000004</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>15.51232774</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>10.54622968</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>18783.965359999998</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H7" s="9">
         <v>28033.13077820628</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="3">
         <v>0.84899999999999998</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>76.063999999999993</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>18.979509350000001</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>11.14408016</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>22047.971310000001</v>
       </c>
-      <c r="G8" s="9">
+      <c r="H8" s="9">
         <v>27627.963476463625</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="3">
         <v>0.78600000000000003</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>73.372</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>14.405610080000001</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>11.33030033</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>15388.29976</v>
       </c>
-      <c r="G9" s="9">
+      <c r="H9" s="9">
         <v>17886.178387716784</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="3">
         <v>0.94599999999999995</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>83.578999999999994</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>21.080020900000001</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>12.726819989999999</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>49257.135199999997</v>
       </c>
-      <c r="G10" s="9">
+      <c r="H10" s="9">
         <v>59845.785804543419</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>82.412000000000006</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>16.367460250000001</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>12.305713669999999</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>56529.663289999997</v>
       </c>
-      <c r="G11" s="9">
+      <c r="H11" s="9">
         <v>65602.256533481777</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="3">
         <v>0.76</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>73.488</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>12.710630419999999</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>10.55612992</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>15018.05443</v>
       </c>
-      <c r="G12" s="9">
+      <c r="H12" s="9">
         <v>21051.268761928895</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="3">
         <v>0.82</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>74.358000000000004</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>11.891379710000001</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>12.73161494</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>32534.887839999999</v>
       </c>
-      <c r="G13" s="9">
+      <c r="H13" s="9">
         <v>32408.711859765077</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="3">
+      <c r="C14" s="3">
         <v>0.88800000000000001</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>79.245999999999995</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>16.299680710000001</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>11.04658985</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>48731.445639999998</v>
       </c>
-      <c r="G14" s="9">
+      <c r="H14" s="9">
         <v>57465.172978444913</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="3">
         <v>0.67</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>73.697999999999993</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <v>11.94633007</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>7.3790597919999996</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>6511.1221779999996</v>
       </c>
-      <c r="G15" s="9">
+      <c r="H15" s="9">
         <v>7888.1638909830435</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="3">
+      <c r="C16" s="3">
         <v>0.80900000000000005</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <v>77.706000000000003</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>16.530693670000002</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>9.8920616799999994</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>14810.23783</v>
       </c>
-      <c r="G16" s="9">
+      <c r="H16" s="9">
         <v>18469.576588863842</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="3">
         <v>0.80100000000000005</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>73.245999999999995</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>13.981530190000001</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>12.241224450000001</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>18425.010610000001</v>
       </c>
-      <c r="G17" s="9">
+      <c r="H17" s="9">
         <v>26537.508307486489</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="3">
         <v>0.94199999999999995</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>82.293000000000006</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>18.945739750000001</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>12.528577889999999</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>53644.038540000001</v>
       </c>
-      <c r="G18" s="9">
+      <c r="H18" s="9">
         <v>62668.953971534524</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="3">
         <v>0.7</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>70.962000000000003</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>12.42656994</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>8.8475999830000003</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>9242.0822590000007</v>
       </c>
-      <c r="G19" s="9">
+      <c r="H19" s="9">
         <v>12569.817943308826</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="3">
         <v>0.504</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>59.954000000000001</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>10.30257988</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>3.1372617250000001</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <v>3406.0729369999999</v>
       </c>
-      <c r="G20" s="9">
+      <c r="H20" s="9">
         <v>3588.3352585804696</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" s="3">
         <v>0.68100000000000005</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <v>72.228999999999999</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>13.064490409999999</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>5.8357946619999996</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="5">
         <v>10624.873879999999</v>
       </c>
-      <c r="G21" s="9">
+      <c r="H21" s="9">
         <v>14061.312021368884</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>198</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="3">
         <v>0.69799999999999995</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>64.927999999999997</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>15.022438169999999</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>9.8277502059999993</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <v>7987.8422469999996</v>
       </c>
-      <c r="G22" s="9">
+      <c r="H22" s="9">
         <v>9681.7074267442513</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="3">
         <v>0.77900000000000003</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D23" s="4">
         <v>75.293000000000006</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <v>13.27705956</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>10.536319730000001</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="5">
         <v>16571.41275</v>
       </c>
-      <c r="G23" s="9">
+      <c r="H23" s="9">
         <v>19280.887300051389</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="3">
         <v>0.70799999999999996</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D24" s="4">
         <v>65.912999999999997</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E24" s="4">
         <v>11.425680160000001</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
         <v>10.42</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G24" s="5">
         <v>14841.57836</v>
       </c>
-      <c r="G24" s="9">
+      <c r="H24" s="9">
         <v>18648.135596413191</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="3">
         <v>0.76</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <v>73.424999999999997</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>15.5788002</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>8.2783076379999994</v>
       </c>
-      <c r="F25" s="5">
+      <c r="G25" s="5">
         <v>14615.89235</v>
       </c>
-      <c r="G25" s="9">
+      <c r="H25" s="9">
         <v>18554.046184297746</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="3">
         <v>0.82299999999999995</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D26" s="4">
         <v>74.551000000000002</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="4">
         <v>13.698619839999999</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <v>9.2200000000000006</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="5">
         <v>59245.634850000002</v>
       </c>
-      <c r="G26" s="9">
+      <c r="H26" s="9">
         <v>76357.829101777228</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="3">
         <v>0.79900000000000004</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D27" s="4">
         <v>71.528000000000006</v>
       </c>
-      <c r="D27" s="4">
+      <c r="E27" s="4">
         <v>13.868029590000001</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="4">
         <v>11.413180349999999</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G27" s="5">
         <v>25920.803749999999</v>
       </c>
-      <c r="G27" s="9">
+      <c r="H27" s="9">
         <v>31536.170073927755</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="3">
         <v>0.438</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <v>59.765999999999998</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>8.0915603639999993</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>2.3186852390000001</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G28" s="5">
         <v>2036.997179</v>
       </c>
-      <c r="G28" s="9">
+      <c r="H28" s="9">
         <v>2466.0533139005361</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="3">
         <v>0.42</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <v>61.976999999999997</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>9.9663789529999995</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>3.3052155980000002</v>
       </c>
-      <c r="F29" s="5">
+      <c r="G29" s="5">
         <v>712.02600070000005</v>
       </c>
-      <c r="G29" s="9">
+      <c r="H29" s="9">
         <v>829.38715963357015</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="3">
+      <c r="C30" s="3">
         <v>0.66100000000000003</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>74.721999999999994</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>11.53066323</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>6.0900390499999997</v>
       </c>
-      <c r="F30" s="5">
+      <c r="G30" s="5">
         <v>7601.0854330000002</v>
       </c>
-      <c r="G30" s="9">
+      <c r="H30" s="9">
         <v>8850.1066918811957</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" s="3">
         <v>0.6</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D31" s="4">
         <v>69.896000000000001</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>11.56094805</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>5.197100163</v>
       </c>
-      <c r="F31" s="5">
+      <c r="G31" s="5">
         <v>4291.1131679999999</v>
       </c>
-      <c r="G31" s="9">
+      <c r="H31" s="9">
         <v>6456.7382143272016</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32" s="3">
         <v>0.58699999999999997</v>
       </c>
-      <c r="C32" s="4">
+      <c r="D32" s="4">
         <v>60.957999999999998</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="4">
         <v>13.38097793</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <v>6.5374017809999998</v>
       </c>
-      <c r="F32" s="5">
+      <c r="G32" s="5">
         <v>3681.4699879999998</v>
       </c>
-      <c r="G32" s="9">
+      <c r="H32" s="9">
         <v>4843.6503820291655</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="3">
         <v>0.93500000000000005</v>
       </c>
-      <c r="C33" s="4">
+      <c r="D33" s="4">
         <v>82.846999999999994</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>15.96065044</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>13.86876597</v>
       </c>
-      <c r="F33" s="5">
+      <c r="G33" s="5">
         <v>48444.393190000003</v>
       </c>
-      <c r="G33" s="9">
+      <c r="H33" s="9">
         <v>57653.689304709922</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" s="3">
         <v>0.38700000000000001</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>54.476999999999997</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>7.2858873930000003</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>3.9531638999999998</v>
       </c>
-      <c r="F34" s="5">
+      <c r="G34" s="5">
         <v>869.11237000000006</v>
       </c>
-      <c r="G34" s="9">
+      <c r="H34" s="9">
         <v>1137.347265600572</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" t="s">
+        <v>342</v>
+      </c>
+      <c r="C35" s="3">
         <v>0.39400000000000002</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
         <v>52.997</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="4">
         <v>8.1855265680000002</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>2.282753488</v>
       </c>
-      <c r="F35" s="5">
+      <c r="G35" s="5">
         <v>1388.897502</v>
       </c>
-      <c r="G35" s="9">
+      <c r="H35" s="9">
         <v>1688.4601753026393</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" s="3">
         <v>0.86</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>79.519000000000005</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>16.767929079999998</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>11.11136804</v>
       </c>
-      <c r="F36" s="5">
+      <c r="G36" s="5">
         <v>24430.995930000001</v>
       </c>
-      <c r="G36" s="9">
+      <c r="H36" s="9">
         <v>29585.601672469209</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" s="3">
         <v>0.78800000000000003</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>78.587000000000003</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>15.21793605</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>8.1069104460000005</v>
       </c>
-      <c r="F37" s="5">
+      <c r="G37" s="5">
         <v>18024.887470000001</v>
       </c>
-      <c r="G37" s="9">
+      <c r="H37" s="9">
         <v>21011.617130907656</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="3">
         <v>0.75800000000000001</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D38" s="4">
         <v>73.659000000000006</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <v>14.437490459999999</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>8.8628597259999999</v>
       </c>
-      <c r="F38" s="5">
+      <c r="G38" s="5">
         <v>15013.927240000001</v>
       </c>
-      <c r="G38" s="9">
+      <c r="H38" s="9">
         <v>18419.038399060351</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="3">
+      <c r="C39" s="3">
         <v>0.58599999999999997</v>
       </c>
-      <c r="C39" s="4">
+      <c r="D39" s="4">
         <v>63.68</v>
       </c>
-      <c r="D39" s="4">
+      <c r="E39" s="4">
         <v>13.03771042</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
         <v>6.2090568319999999</v>
       </c>
-      <c r="F39" s="5">
+      <c r="G39" s="5">
         <v>3260.5554659999998</v>
       </c>
-      <c r="G39" s="9">
+      <c r="H39" s="9">
         <v>3463.0057430089091</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" s="3">
         <v>0.59299999999999997</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D40" s="4">
         <v>63.052999999999997</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E40" s="4">
         <v>12.416470439999999</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>8.2505525849999994</v>
       </c>
-      <c r="F40" s="5">
+      <c r="G40" s="5">
         <v>2902.8080369999998</v>
       </c>
-      <c r="G40" s="9">
+      <c r="H40" s="9">
         <v>6205.1050414034034</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="3">
         <v>0.48099999999999998</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D41" s="4">
         <v>59.743000000000002</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>9.5794869130000002</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>7.2061647989999997</v>
       </c>
-      <c r="F41" s="5">
+      <c r="G41" s="5">
         <v>1080.1383080000001</v>
       </c>
-      <c r="G41" s="9">
+      <c r="H41" s="9">
         <v>1385.4647238095911</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" s="3">
         <v>0.80600000000000005</v>
       </c>
-      <c r="C42" s="4">
+      <c r="D42" s="4">
         <v>77.319999999999993</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E42" s="4">
         <v>16.092003779999999</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
         <v>8.8040599820000001</v>
       </c>
-      <c r="F42" s="5">
+      <c r="G42" s="5">
         <v>20248.38031</v>
       </c>
-      <c r="G42" s="9">
+      <c r="H42" s="9">
         <v>24841.546266099307</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" s="3">
         <v>0.53400000000000003</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D43" s="4">
         <v>58.915999999999997</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>10.10165024</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>4.2369776300000002</v>
       </c>
-      <c r="F43" s="5">
+      <c r="G43" s="5">
         <v>5376.3960619999998</v>
       </c>
-      <c r="G43" s="9">
+      <c r="H43" s="9">
         <v>6261.5331447839771</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C44" s="3">
         <v>0.878</v>
       </c>
-      <c r="C44" s="4">
+      <c r="D44" s="4">
         <v>79.236000000000004</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>15.572699549999999</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>12.32871821</v>
       </c>
-      <c r="F44" s="5">
+      <c r="G44" s="5">
         <v>34323.806629999999</v>
       </c>
-      <c r="G44" s="9">
+      <c r="H44" s="9">
         <v>39828.032540985012</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45" s="3">
         <v>0.76400000000000001</v>
       </c>
-      <c r="C45" s="4">
+      <c r="D45" s="4">
         <v>78.155000000000001</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>14.46930027</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>10.548071970000001</v>
       </c>
-      <c r="F45" s="5">
+      <c r="G45" s="5">
         <v>7953.4484259999999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" t="s">
+        <v>237</v>
+      </c>
+      <c r="C46" s="3">
         <v>0.90700000000000003</v>
       </c>
-      <c r="C46" s="4">
+      <c r="D46" s="4">
         <v>81.888999999999996</v>
       </c>
-      <c r="D46" s="4">
+      <c r="E46" s="4">
         <v>16.243089680000001</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
         <v>12.440170289999999</v>
       </c>
-      <c r="F46" s="5">
+      <c r="G46" s="5">
         <v>40136.894529999998</v>
       </c>
-      <c r="G46" s="9">
+      <c r="H46" s="9">
         <v>51622.46875</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="3">
         <v>0.89500000000000002</v>
       </c>
-      <c r="C47" s="4">
+      <c r="D47" s="4">
         <v>78.129000000000005</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <v>16.3472805</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>12.916053420000001</v>
       </c>
-      <c r="F47" s="5">
+      <c r="G47" s="5">
         <v>39944.666819999999</v>
       </c>
-      <c r="G47" s="9">
+      <c r="H47" s="9">
         <v>48346.971212959943</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" t="s">
+        <v>241</v>
+      </c>
+      <c r="C48" s="3">
         <v>0.95199999999999996</v>
       </c>
-      <c r="C48" s="4">
+      <c r="D48" s="4">
         <v>81.882000000000005</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E48" s="4">
         <v>18.77403069</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>12.96049023</v>
       </c>
-      <c r="F48" s="5">
+      <c r="G48" s="5">
         <v>62018.956939999996</v>
       </c>
-      <c r="G48" s="9">
+      <c r="H48" s="9">
         <v>70170.224163323539</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49" s="3">
         <v>0.51500000000000001</v>
       </c>
-      <c r="C49" s="4">
+      <c r="D49" s="4">
         <v>62.859000000000002</v>
       </c>
-      <c r="D49" s="4">
+      <c r="E49" s="4">
         <v>8.0283743619999992</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49" s="4">
         <v>3.8899841560000001</v>
       </c>
-      <c r="F49" s="5">
+      <c r="G49" s="5">
         <v>4874.5182800000002</v>
       </c>
-      <c r="G49" s="9">
+      <c r="H49" s="9">
         <v>6083.6436819008723</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="3">
+      <c r="C50" s="3">
         <v>0.74</v>
       </c>
-      <c r="C50" s="4">
+      <c r="D50" s="4">
         <v>72.980999999999995</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E50" s="4">
         <v>13.550483850000001</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50" s="4">
         <v>9.1863440999999995</v>
       </c>
-      <c r="F50" s="5">
+      <c r="G50" s="5">
         <v>12467.85548</v>
       </c>
-      <c r="G50" s="9">
+      <c r="H50" s="9">
         <v>16557.640667012136</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="3">
         <v>0.76600000000000001</v>
       </c>
-      <c r="C51" s="4">
+      <c r="D51" s="4">
         <v>74.17</v>
       </c>
-      <c r="D51" s="4">
+      <c r="E51" s="4">
         <v>13.55698967</v>
       </c>
-      <c r="E51" s="4">
+      <c r="F51" s="4">
         <v>9.1505263830000008</v>
       </c>
-      <c r="F51" s="5">
+      <c r="G51" s="5">
         <v>18653.268359999998</v>
       </c>
-      <c r="G51" s="9">
+      <c r="H51" s="9">
         <v>22757.389615989618</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" t="s">
+        <v>244</v>
+      </c>
+      <c r="C52" s="3">
         <v>0.76500000000000001</v>
       </c>
-      <c r="C52" s="4">
+      <c r="D52" s="4">
         <v>77.894000000000005</v>
       </c>
-      <c r="D52" s="4">
+      <c r="E52" s="4">
         <v>14.864839549999999</v>
       </c>
-      <c r="E52" s="4">
+      <c r="F52" s="4">
         <v>8.9697504039999991</v>
       </c>
-      <c r="F52" s="5">
+      <c r="G52" s="5">
         <v>10693.234839999999</v>
       </c>
-      <c r="G52" s="9">
+      <c r="H52" s="9">
         <v>14263.203975663155</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="3">
         <v>0.72799999999999998</v>
       </c>
-      <c r="C53" s="4">
+      <c r="D53" s="4">
         <v>70.159000000000006</v>
       </c>
-      <c r="D53" s="4">
+      <c r="E53" s="4">
         <v>12.91180992</v>
       </c>
-      <c r="E53" s="4">
+      <c r="F53" s="4">
         <v>9.8481022399999993</v>
       </c>
-      <c r="F53" s="5">
+      <c r="G53" s="5">
         <v>12360.8163</v>
       </c>
-      <c r="G53" s="9">
+      <c r="H53" s="9">
         <v>16360.390775036374</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" t="s">
+        <v>334</v>
+      </c>
+      <c r="C54" s="3">
         <v>0.67400000000000004</v>
       </c>
-      <c r="C54" s="4">
+      <c r="D54" s="4">
         <v>71.474999999999994</v>
       </c>
-      <c r="D54" s="4">
+      <c r="E54" s="4">
         <v>11.9099355</v>
       </c>
-      <c r="E54" s="4">
+      <c r="F54" s="4">
         <v>7.150929928</v>
       </c>
-      <c r="F54" s="5">
+      <c r="G54" s="5">
         <v>8886.1735279999994</v>
       </c>
-      <c r="G54" s="9">
+      <c r="H54" s="9">
         <v>11068.921430063701</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" t="s">
+        <v>260</v>
+      </c>
+      <c r="C55" s="3">
         <v>0.65</v>
       </c>
-      <c r="C55" s="4">
+      <c r="D55" s="4">
         <v>61.19</v>
       </c>
-      <c r="D55" s="4">
+      <c r="E55" s="4">
         <v>12.13132742</v>
       </c>
-      <c r="E55" s="4">
+      <c r="F55" s="4">
         <v>8.2813270140000004</v>
       </c>
-      <c r="F55" s="5">
+      <c r="G55" s="5">
         <v>10662.65921</v>
       </c>
-      <c r="G55" s="9">
+      <c r="H55" s="9">
         <v>16932.77068271548</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" t="s">
+        <v>246</v>
+      </c>
+      <c r="C56" s="3">
         <v>0.49299999999999999</v>
       </c>
-      <c r="C56" s="4">
+      <c r="D56" s="4">
         <v>66.603999999999999</v>
       </c>
-      <c r="D56" s="4">
+      <c r="E56" s="4">
         <v>7.3188355119999997</v>
       </c>
-      <c r="E56" s="4">
+      <c r="F56" s="4">
         <v>5.0913644199999997</v>
       </c>
-      <c r="F56" s="5">
+      <c r="G56" s="5">
         <v>1957.046464</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="3">
         <v>0.89900000000000002</v>
       </c>
-      <c r="C57" s="4">
+      <c r="D57" s="4">
         <v>79.155000000000001</v>
       </c>
-      <c r="D57" s="4">
+      <c r="E57" s="4">
         <v>15.942979810000001</v>
       </c>
-      <c r="E57" s="4">
+      <c r="F57" s="4">
         <v>13.548430440000001</v>
       </c>
-      <c r="F57" s="5">
+      <c r="G57" s="5">
         <v>37151.633840000002</v>
       </c>
-      <c r="G57" s="9">
+      <c r="H57" s="9">
         <v>43650.938424792192</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B58" s="3">
+      <c r="C58" s="3">
         <v>0.61</v>
       </c>
-      <c r="C58" s="4">
+      <c r="D58" s="4">
         <v>56.36</v>
       </c>
-      <c r="D58" s="4">
+      <c r="E58" s="4">
         <v>14.926927559999999</v>
       </c>
-      <c r="E58" s="4">
+      <c r="F58" s="4">
         <v>5.73</v>
       </c>
-      <c r="F58" s="5">
+      <c r="G58" s="5">
         <v>8391.8551110000008</v>
       </c>
-      <c r="G58" s="9">
+      <c r="H58" s="9">
         <v>9740.0652590912232</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" s="3">
         <v>0.49199999999999999</v>
       </c>
-      <c r="C59" s="4">
+      <c r="D59" s="4">
         <v>65.644999999999996</v>
       </c>
-      <c r="D59" s="4">
+      <c r="E59" s="4">
         <v>9.9387435140000004</v>
       </c>
-      <c r="E59" s="4">
+      <c r="F59" s="4">
         <v>2.3908540810000001</v>
       </c>
-      <c r="F59" s="5">
+      <c r="G59" s="5">
         <v>2368.7583909999998</v>
       </c>
-      <c r="G59" s="9">
+      <c r="H59" s="9">
         <v>2655.5779161913265</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" t="s">
+        <v>251</v>
+      </c>
+      <c r="C60" s="3">
         <v>0.72899999999999998</v>
       </c>
-      <c r="C60" s="4">
+      <c r="D60" s="4">
         <v>68.311999999999998</v>
       </c>
-      <c r="D60" s="4">
+      <c r="E60" s="4">
         <v>13.84869</v>
       </c>
-      <c r="E60" s="4">
+      <c r="F60" s="4">
         <v>10.37096977</v>
       </c>
-      <c r="F60" s="5">
+      <c r="G60" s="5">
         <v>11233.658820000001</v>
       </c>
-      <c r="G60" s="9">
+      <c r="H60" s="9">
         <v>12762.346581133736</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" t="s">
+        <v>250</v>
+      </c>
+      <c r="C61" s="3">
         <v>0.94199999999999995</v>
       </c>
-      <c r="C61" s="4">
+      <c r="D61" s="4">
         <v>82.350999999999999</v>
       </c>
-      <c r="D61" s="4">
+      <c r="E61" s="4">
         <v>19.228590010000001</v>
       </c>
-      <c r="E61" s="4">
+      <c r="F61" s="4">
         <v>12.929155010000001</v>
       </c>
-      <c r="F61" s="5">
+      <c r="G61" s="5">
         <v>49522.098530000003</v>
       </c>
-      <c r="G61" s="9">
+      <c r="H61" s="9">
         <v>57405.551856093894</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" t="s">
+        <v>252</v>
+      </c>
+      <c r="C62" s="3">
         <v>0.91</v>
       </c>
-      <c r="C62" s="4">
+      <c r="D62" s="4">
         <v>83.228999999999999</v>
       </c>
-      <c r="D62" s="4">
+      <c r="E62" s="4">
         <v>15.987560269999999</v>
       </c>
-      <c r="E62" s="4">
+      <c r="F62" s="4">
         <v>11.688592460000001</v>
       </c>
-      <c r="F62" s="5">
+      <c r="G62" s="5">
         <v>47378.743040000001</v>
       </c>
-      <c r="G62" s="9">
+      <c r="H62" s="9">
         <v>53643.075854171882</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" t="s">
+        <v>253</v>
+      </c>
+      <c r="C63" s="3">
         <v>0.69299999999999995</v>
       </c>
-      <c r="C63" s="4">
+      <c r="D63" s="4">
         <v>65.694000000000003</v>
       </c>
-      <c r="D63" s="4">
+      <c r="E63" s="4">
         <v>12.43426472</v>
       </c>
-      <c r="E63" s="4">
+      <c r="F63" s="4">
         <v>9.5500000000000007</v>
       </c>
-      <c r="F63" s="5">
+      <c r="G63" s="5">
         <v>11194.21884</v>
       </c>
-      <c r="G63" s="9">
+      <c r="H63" s="9">
         <v>18662.049797011423</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" t="s">
+        <v>258</v>
+      </c>
+      <c r="C64" s="3">
         <v>0.495</v>
       </c>
-      <c r="C64" s="4">
+      <c r="D64" s="4">
         <v>62.905999999999999</v>
       </c>
-      <c r="D64" s="4">
+      <c r="E64" s="4">
         <v>8.9778996860000007</v>
       </c>
-      <c r="E64" s="4">
+      <c r="F64" s="4">
         <v>4.5124201770000001</v>
       </c>
-      <c r="F64" s="5">
+      <c r="G64" s="5">
         <v>2089.6268260000002</v>
       </c>
-      <c r="G64" s="9">
+      <c r="H64" s="9">
         <v>2863.1804982985946</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" s="3">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C65" s="4">
+      <c r="D65" s="4">
         <v>71.587000000000003</v>
       </c>
-      <c r="D65" s="4">
+      <c r="E65" s="4">
         <v>16.72682953</v>
       </c>
-      <c r="E65" s="4">
+      <c r="F65" s="4">
         <v>12.702170369999999</v>
       </c>
-      <c r="F65" s="5">
+      <c r="G65" s="5">
         <v>15952.024520000001</v>
       </c>
-      <c r="G65" s="9">
+      <c r="H65" s="9">
         <v>20966.528039113447</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" s="3">
         <v>0.95</v>
       </c>
-      <c r="C66" s="4">
+      <c r="D66" s="4">
         <v>80.989000000000004</v>
       </c>
-      <c r="D66" s="4">
+      <c r="E66" s="4">
         <v>17.343349459999999</v>
       </c>
-      <c r="E66" s="4">
+      <c r="F66" s="4">
         <v>14.25594044</v>
       </c>
-      <c r="F66" s="5">
+      <c r="G66" s="5">
         <v>55340.197220000002</v>
       </c>
-      <c r="G66" s="9">
+      <c r="H66" s="9">
         <v>62875.205218460811</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" t="s">
+        <v>256</v>
+      </c>
+      <c r="C67" s="3">
         <v>0.60199999999999998</v>
       </c>
-      <c r="C67" s="4">
+      <c r="D67" s="4">
         <v>63.945</v>
       </c>
-      <c r="D67" s="4">
+      <c r="E67" s="4">
         <v>11.58627987</v>
       </c>
-      <c r="E67" s="4">
+      <c r="F67" s="4">
         <v>6.4323184390000003</v>
       </c>
-      <c r="F67" s="5">
+      <c r="G67" s="5">
         <v>5380.2715349999999</v>
       </c>
-      <c r="G67" s="9">
+      <c r="H67" s="9">
         <v>6729.2744035256192</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" t="s">
+        <v>261</v>
+      </c>
+      <c r="C68" s="3">
         <v>0.89300000000000002</v>
       </c>
-      <c r="C68" s="4">
+      <c r="D68" s="4">
         <v>80.614000000000004</v>
       </c>
-      <c r="D68" s="4">
+      <c r="E68" s="4">
         <v>20.026380540000002</v>
       </c>
-      <c r="E68" s="4">
+      <c r="F68" s="4">
         <v>11.408530239999999</v>
       </c>
-      <c r="F68" s="5">
+      <c r="G68" s="5">
         <v>31381.667000000001</v>
       </c>
-      <c r="G68" s="9">
+      <c r="H68" s="9">
         <v>35874.238585154075</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="3">
+      <c r="C69" s="3">
         <v>0.79300000000000004</v>
       </c>
-      <c r="C69" s="4">
+      <c r="D69" s="4">
         <v>75.334999999999994</v>
       </c>
-      <c r="D69" s="4">
+      <c r="E69" s="4">
         <v>16.582261559999999</v>
       </c>
-      <c r="E69" s="4">
+      <c r="F69" s="4">
         <v>9.8579646400000005</v>
       </c>
-      <c r="F69" s="5">
+      <c r="G69" s="5">
         <v>13593.24958</v>
       </c>
-      <c r="G69" s="9">
+      <c r="H69" s="9">
         <v>16386.462338159985</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" t="s">
+        <v>262</v>
+      </c>
+      <c r="C70" s="3">
         <v>0.629</v>
       </c>
-      <c r="C70" s="4">
+      <c r="D70" s="4">
         <v>68.674000000000007</v>
       </c>
-      <c r="D70" s="4">
+      <c r="E70" s="4">
         <v>10.76720388</v>
       </c>
-      <c r="E70" s="4">
+      <c r="F70" s="4">
         <v>5.6686480130000003</v>
       </c>
-      <c r="F70" s="5">
+      <c r="G70" s="5">
         <v>8996.4158220000008</v>
       </c>
-      <c r="G70" s="9">
+      <c r="H70" s="9">
         <v>12153.030598653497</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" t="s">
+        <v>257</v>
+      </c>
+      <c r="C71" s="3">
         <v>0.47099999999999997</v>
       </c>
-      <c r="C71" s="4">
+      <c r="D71" s="4">
         <v>58.984999999999999</v>
       </c>
-      <c r="D71" s="4">
+      <c r="E71" s="4">
         <v>10.20014763</v>
       </c>
-      <c r="E71" s="4">
+      <c r="F71" s="4">
         <v>2.35910296</v>
       </c>
-      <c r="F71" s="5">
+      <c r="G71" s="5">
         <v>2404.1658320000001</v>
       </c>
-      <c r="G71" s="9">
+      <c r="H71" s="9">
         <v>3792.0106883627727</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" t="s">
+        <v>259</v>
+      </c>
+      <c r="C72" s="3">
         <v>0.48299999999999998</v>
       </c>
-      <c r="C72" s="4">
+      <c r="D72" s="4">
         <v>59.860999999999997</v>
       </c>
-      <c r="D72" s="4">
+      <c r="E72" s="4">
         <v>10.5316806</v>
       </c>
-      <c r="E72" s="4">
+      <c r="F72" s="4">
         <v>3.673035</v>
       </c>
-      <c r="F72" s="5">
+      <c r="G72" s="5">
         <v>1879.853611</v>
       </c>
-      <c r="G72" s="9">
+      <c r="H72" s="9">
         <v>2507.0147245235003</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" t="s">
+        <v>263</v>
+      </c>
+      <c r="C73" s="3">
         <v>0.74199999999999999</v>
       </c>
-      <c r="C73" s="4">
+      <c r="D73" s="4">
         <v>65.989000000000004</v>
       </c>
-      <c r="D73" s="4">
+      <c r="E73" s="4">
         <v>13.022057650000001</v>
       </c>
-      <c r="E73" s="4">
+      <c r="F73" s="4">
         <v>8.6274087260000005</v>
       </c>
-      <c r="F73" s="5">
+      <c r="G73" s="5">
         <v>35782.909610000002</v>
       </c>
-      <c r="G73" s="9">
+      <c r="H73" s="9">
         <v>37068.196887314902</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" t="s">
+        <v>266</v>
+      </c>
+      <c r="C74" s="3">
         <v>0.55200000000000005</v>
       </c>
-      <c r="C74" s="4">
+      <c r="D74" s="4">
         <v>63.728000000000002</v>
       </c>
-      <c r="D74" s="4">
+      <c r="E74" s="4">
         <v>11.13756869</v>
       </c>
-      <c r="E74" s="4">
+      <c r="F74" s="4">
         <v>5.6094684260000003</v>
       </c>
-      <c r="F74" s="5">
+      <c r="G74" s="5">
         <v>2801.7125160000001</v>
       </c>
-      <c r="G74" s="9">
+      <c r="H74" s="9">
         <v>3047.6517929945157</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" t="s">
+        <v>264</v>
+      </c>
+      <c r="C75" s="3">
         <v>0.624</v>
       </c>
-      <c r="C75" s="4">
+      <c r="D75" s="4">
         <v>70.727999999999994</v>
       </c>
-      <c r="D75" s="4">
+      <c r="E75" s="4">
         <v>9.9617076329999996</v>
       </c>
-      <c r="E75" s="4">
+      <c r="F75" s="4">
         <v>7.2962005139999997</v>
       </c>
-      <c r="F75" s="5">
+      <c r="G75" s="5">
         <v>5271.604988</v>
       </c>
-      <c r="G75" s="9">
+      <c r="H75" s="9">
         <v>6352.5871017773179</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="3">
+      <c r="C76" s="3">
         <v>0.95599999999999996</v>
       </c>
-      <c r="C76" s="4">
+      <c r="D76" s="4">
         <v>84.314999999999998</v>
       </c>
-      <c r="D76" s="4">
+      <c r="E76" s="4">
         <v>17.849590299999999</v>
       </c>
-      <c r="E76" s="4">
+      <c r="F76" s="4">
         <v>12.34776974</v>
       </c>
-      <c r="F76" s="5">
+      <c r="G76" s="5">
         <v>62485.505160000001</v>
       </c>
-      <c r="G76" s="9">
+      <c r="H76" s="9">
         <v>64036.787039266805</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" t="s">
+        <v>267</v>
+      </c>
+      <c r="C77" s="3">
         <v>0.85099999999999998</v>
       </c>
-      <c r="C77" s="4">
+      <c r="D77" s="4">
         <v>74.957999999999998</v>
       </c>
-      <c r="D77" s="4">
+      <c r="E77" s="4">
         <v>15.073300359999999</v>
       </c>
-      <c r="E77" s="4">
+      <c r="F77" s="4">
         <v>12.24958992</v>
       </c>
-      <c r="F77" s="5">
+      <c r="G77" s="5">
         <v>34195.540589999997</v>
       </c>
-      <c r="G77" s="9">
+      <c r="H77" s="9">
         <v>40316.569335096625</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" t="s">
+        <v>273</v>
+      </c>
+      <c r="C78" s="3">
         <v>0.95899999999999996</v>
       </c>
-      <c r="C78" s="4">
+      <c r="D78" s="4">
         <v>82.814999999999998</v>
       </c>
-      <c r="D78" s="4">
+      <c r="E78" s="4">
         <v>19.106729510000001</v>
       </c>
-      <c r="E78" s="4">
+      <c r="F78" s="4">
         <v>13.76716995</v>
       </c>
-      <c r="F78" s="5">
+      <c r="G78" s="5">
         <v>54688.379209999999</v>
       </c>
-      <c r="G78" s="9">
+      <c r="H78" s="9">
         <v>65563.920870123853</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" t="s">
+        <v>269</v>
+      </c>
+      <c r="C79" s="3">
         <v>0.64400000000000002</v>
       </c>
-      <c r="C79" s="4">
+      <c r="D79" s="4">
         <v>67.744</v>
       </c>
-      <c r="D79" s="4">
+      <c r="E79" s="4">
         <v>12.58370972</v>
       </c>
-      <c r="E79" s="4">
+      <c r="F79" s="4">
         <v>6.5707001690000002</v>
       </c>
-      <c r="F79" s="5">
+      <c r="G79" s="5">
         <v>6950.5267979999999</v>
       </c>
-      <c r="G79" s="9">
+      <c r="H79" s="9">
         <v>8544.6888838318227</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" t="s">
+        <v>268</v>
+      </c>
+      <c r="C80" s="3">
         <v>0.71299999999999997</v>
       </c>
-      <c r="C80" s="4">
+      <c r="D80" s="4">
         <v>68.25</v>
       </c>
-      <c r="D80" s="4">
+      <c r="E80" s="4">
         <v>13.975737240000001</v>
       </c>
-      <c r="E80" s="4">
+      <c r="F80" s="4">
         <v>8.5565099720000006</v>
       </c>
-      <c r="F80" s="5">
+      <c r="G80" s="5">
         <v>12045.56544</v>
       </c>
-      <c r="G80" s="9">
+      <c r="H80" s="9">
         <v>13334.293520304047</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" t="s">
+        <v>271</v>
+      </c>
+      <c r="C81" s="3">
         <v>0.78</v>
       </c>
-      <c r="C81" s="4">
+      <c r="D81" s="4">
         <v>74.555999999999997</v>
       </c>
-      <c r="D81" s="4">
+      <c r="E81" s="4">
         <v>14.11717033</v>
       </c>
-      <c r="E81" s="4">
+      <c r="F81" s="4">
         <v>10.74618321</v>
       </c>
-      <c r="F81" s="5">
+      <c r="G81" s="5">
         <v>14770.32307</v>
       </c>
-      <c r="G81" s="9">
+      <c r="H81" s="9">
         <v>15331.332940041908</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" t="s">
+        <v>272</v>
+      </c>
+      <c r="C82" s="3">
         <v>0.67300000000000004</v>
       </c>
-      <c r="C82" s="4">
+      <c r="D82" s="4">
         <v>71.335999999999999</v>
       </c>
-      <c r="D82" s="4">
+      <c r="E82" s="4">
         <v>12.222755709999999</v>
       </c>
-      <c r="E82" s="4">
+      <c r="F82" s="4">
         <v>6.8118789470000003</v>
       </c>
-      <c r="F82" s="5">
+      <c r="G82" s="5">
         <v>9091.8653770000001</v>
       </c>
-      <c r="G82" s="9">
+      <c r="H82" s="9">
         <v>13393.674942810356</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" t="s">
+        <v>270</v>
+      </c>
+      <c r="C83" s="3">
         <v>0.95</v>
       </c>
-      <c r="C83" s="4">
+      <c r="D83" s="4">
         <v>82.715999999999994</v>
       </c>
-      <c r="D83" s="4">
+      <c r="E83" s="4">
         <v>19.126100539999999</v>
       </c>
-      <c r="E83" s="4">
+      <c r="F83" s="4">
         <v>11.6569568</v>
       </c>
-      <c r="F83" s="5">
+      <c r="G83" s="5">
         <v>87467.513909999994</v>
       </c>
-      <c r="G83" s="9">
+      <c r="H83" s="9">
         <v>125511.97596165583</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" t="s">
+        <v>274</v>
+      </c>
+      <c r="C84" s="3">
         <v>0.91500000000000004</v>
       </c>
-      <c r="C84" s="4">
+      <c r="D84" s="4">
         <v>82.600999999999999</v>
       </c>
-      <c r="D84" s="4">
+      <c r="E84" s="4">
         <v>15.02984047</v>
       </c>
-      <c r="E84" s="4">
+      <c r="F84" s="4">
         <v>13.44279092</v>
       </c>
-      <c r="F84" s="5">
+      <c r="G84" s="5">
         <v>43588.257250000002</v>
       </c>
-      <c r="G84" s="9">
+      <c r="H84" s="9">
         <v>48195.650722695333</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" t="s">
+        <v>275</v>
+      </c>
+      <c r="C85" s="3">
         <v>0.90600000000000003</v>
       </c>
-      <c r="C85" s="4">
+      <c r="D85" s="4">
         <v>84.057000000000002</v>
       </c>
-      <c r="D85" s="4">
+      <c r="E85" s="4">
         <v>16.658060070000001</v>
       </c>
-      <c r="E85" s="4">
+      <c r="F85" s="4">
         <v>10.740110400000001</v>
       </c>
-      <c r="F85" s="5">
+      <c r="G85" s="5">
         <v>44284.157350000001</v>
       </c>
-      <c r="G85" s="9">
+      <c r="H85" s="9">
         <v>52206.486622991848</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" t="s">
+        <v>276</v>
+      </c>
+      <c r="C86" s="3">
         <v>0.70599999999999996</v>
       </c>
-      <c r="C86" s="4">
+      <c r="D86" s="4">
         <v>70.629000000000005</v>
       </c>
-      <c r="D86" s="4">
+      <c r="E86" s="4">
         <v>12.45977059</v>
       </c>
-      <c r="E86" s="4">
+      <c r="F86" s="4">
         <v>9.2481887189999998</v>
       </c>
-      <c r="F86" s="5">
+      <c r="G86" s="5">
         <v>9694.522766</v>
       </c>
-      <c r="G86" s="9">
+      <c r="H86" s="9">
         <v>10072.048528936073</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" t="s">
+        <v>278</v>
+      </c>
+      <c r="C87" s="3">
         <v>0.92</v>
       </c>
-      <c r="C87" s="4">
+      <c r="D87" s="4">
         <v>84.82</v>
       </c>
-      <c r="D87" s="4">
+      <c r="E87" s="4">
         <v>15.45631981</v>
       </c>
-      <c r="E87" s="4">
+      <c r="F87" s="4">
         <v>12.66923046</v>
       </c>
-      <c r="F87" s="5">
+      <c r="G87" s="5">
         <v>43643.864170000001</v>
       </c>
-      <c r="G87" s="9">
+      <c r="H87" s="9">
         <v>44970.221713589897</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" t="s">
+        <v>277</v>
+      </c>
+      <c r="C88" s="3">
         <v>0.73599999999999999</v>
       </c>
-      <c r="C88" s="4">
+      <c r="D88" s="4">
         <v>74.215000000000003</v>
       </c>
-      <c r="D88" s="4">
+      <c r="E88" s="4">
         <v>12.62659427</v>
       </c>
-      <c r="E88" s="4">
+      <c r="F88" s="4">
         <v>10.446680069999999</v>
       </c>
-      <c r="F88" s="5">
+      <c r="G88" s="5">
         <v>9294.8014989999992</v>
       </c>
-      <c r="G88" s="9">
+      <c r="H88" s="9">
         <v>9266.5754741586497</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" t="s">
+        <v>279</v>
+      </c>
+      <c r="C89" s="3">
         <v>0.80200000000000005</v>
       </c>
-      <c r="C89" s="4">
+      <c r="D89" s="4">
         <v>69.489000000000004</v>
       </c>
-      <c r="D89" s="4">
+      <c r="E89" s="4">
         <v>14.816269869999999</v>
       </c>
-      <c r="E89" s="4">
+      <c r="F89" s="4">
         <v>12.43337895</v>
       </c>
-      <c r="F89" s="5">
+      <c r="G89" s="5">
         <v>22586.798889999998</v>
       </c>
-      <c r="G89" s="9">
+      <c r="H89" s="9">
         <v>33506.261489323741</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" t="s">
+        <v>280</v>
+      </c>
+      <c r="C90" s="3">
         <v>0.60099999999999998</v>
       </c>
-      <c r="C90" s="4">
+      <c r="D90" s="4">
         <v>62.055</v>
       </c>
-      <c r="D90" s="4">
+      <c r="E90" s="4">
         <v>11.384482009999999</v>
       </c>
-      <c r="E90" s="4">
+      <c r="F90" s="4">
         <v>7.6863598819999996</v>
       </c>
-      <c r="F90" s="5">
+      <c r="G90" s="5">
         <v>4807.7163170000003</v>
       </c>
-      <c r="G90" s="9">
+      <c r="H90" s="9">
         <v>5491.6937828024566</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B91" s="3">
+      <c r="C91" s="3">
         <v>0.628</v>
       </c>
-      <c r="C91" s="4">
+      <c r="D91" s="4">
         <v>67.661000000000001</v>
       </c>
-      <c r="D91" s="4">
+      <c r="E91" s="4">
         <v>11.80302</v>
       </c>
-      <c r="E91" s="4">
+      <c r="F91" s="4">
         <v>9.1285815689999996</v>
       </c>
-      <c r="F91" s="5">
+      <c r="G91" s="5">
         <v>3440.416745</v>
       </c>
-      <c r="G91" s="9">
+      <c r="H91" s="9">
         <v>3117.7602580586185</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" t="s">
+        <v>283</v>
+      </c>
+      <c r="C92" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="C92" s="4">
+      <c r="D92" s="4">
         <v>84.024000000000001</v>
       </c>
-      <c r="D92" s="4">
+      <c r="E92" s="4">
         <v>16.509649280000001</v>
       </c>
-      <c r="E92" s="4">
+      <c r="F92" s="4">
         <v>12.614092339999999</v>
       </c>
-      <c r="F92" s="5">
+      <c r="G92" s="5">
         <v>46026.4542</v>
       </c>
-      <c r="G92" s="9">
+      <c r="H92" s="9">
         <v>49364.493375775732</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" t="s">
+        <v>284</v>
+      </c>
+      <c r="C93" s="3">
         <v>0.84699999999999998</v>
       </c>
-      <c r="C93" s="4">
+      <c r="D93" s="4">
         <v>80.263999999999996</v>
       </c>
-      <c r="D93" s="4">
+      <c r="E93" s="4">
         <v>15.6911416</v>
       </c>
-      <c r="E93" s="4">
+      <c r="F93" s="4">
         <v>7.4417429080000002</v>
       </c>
-      <c r="F93" s="5">
+      <c r="G93" s="5">
         <v>56729.181519999998</v>
       </c>
-      <c r="G93" s="9">
+      <c r="H93" s="9">
         <v>50984.302442795124</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" t="s">
+        <v>281</v>
+      </c>
+      <c r="C94" s="3">
         <v>0.70099999999999996</v>
       </c>
-      <c r="C94" s="4">
+      <c r="D94" s="4">
         <v>70.483999999999995</v>
       </c>
-      <c r="D94" s="4">
+      <c r="E94" s="4">
         <v>12.994930269999999</v>
       </c>
-      <c r="E94" s="4">
+      <c r="F94" s="4">
         <v>11.961319919999999</v>
       </c>
-      <c r="F94" s="5">
+      <c r="G94" s="5">
         <v>4781.6920460000001</v>
       </c>
-      <c r="G94" s="9">
+      <c r="H94" s="9">
         <v>6139.7783283636581</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" t="s">
+        <v>285</v>
+      </c>
+      <c r="C95" s="3">
         <v>0.62</v>
       </c>
-      <c r="C95" s="4">
+      <c r="D95" s="4">
         <v>68.998999999999995</v>
       </c>
-      <c r="D95" s="4">
+      <c r="E95" s="4">
         <v>10.187490459999999</v>
       </c>
-      <c r="E95" s="4">
+      <c r="F95" s="4">
         <v>5.9469705299999998</v>
       </c>
-      <c r="F95" s="5">
+      <c r="G95" s="5">
         <v>7744.8373460000003</v>
       </c>
-      <c r="G95" s="9">
+      <c r="H95" s="9">
         <v>8183.032864726526</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" t="s">
+        <v>293</v>
+      </c>
+      <c r="C96" s="3">
         <v>0.879</v>
       </c>
-      <c r="C96" s="4">
+      <c r="D96" s="4">
         <v>75.927000000000007</v>
       </c>
-      <c r="D96" s="4">
+      <c r="E96" s="4">
         <v>16.55606079</v>
       </c>
-      <c r="E96" s="4">
+      <c r="F96" s="4">
         <v>13.33330305</v>
       </c>
-      <c r="F96" s="5">
+      <c r="G96" s="5">
         <v>32082.981039999999</v>
       </c>
-      <c r="G96" s="9">
+      <c r="H96" s="9">
         <v>37651.016902384537</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" t="s">
+        <v>286</v>
+      </c>
+      <c r="C97" s="3">
         <v>0.72299999999999998</v>
       </c>
-      <c r="C97" s="4">
+      <c r="D97" s="4">
         <v>74.415999999999997</v>
       </c>
-      <c r="D97" s="4">
+      <c r="E97" s="4">
         <v>12.051092239999999</v>
       </c>
-      <c r="E97" s="4">
+      <c r="F97" s="4">
         <v>8.6029690769999991</v>
       </c>
-      <c r="F97" s="5">
+      <c r="G97" s="5">
         <v>12313.422570000001</v>
       </c>
-      <c r="G97" s="9">
+      <c r="H97" s="9">
         <v>11474.750584555837</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" t="s">
+        <v>290</v>
+      </c>
+      <c r="C98" s="3">
         <v>0.52100000000000002</v>
       </c>
-      <c r="C98" s="4">
+      <c r="D98" s="4">
         <v>53.036000000000001</v>
       </c>
-      <c r="D98" s="4">
+      <c r="E98" s="4">
         <v>11.070511249999999</v>
       </c>
-      <c r="E98" s="4">
+      <c r="F98" s="4">
         <v>7.5450587840000001</v>
       </c>
-      <c r="F98" s="5">
+      <c r="G98" s="5">
         <v>2708.731464</v>
       </c>
-      <c r="G98" s="9">
+      <c r="H98" s="9">
         <v>2577.5454412776908</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" t="s">
+        <v>287</v>
+      </c>
+      <c r="C99" s="3">
         <v>0.48699999999999999</v>
       </c>
-      <c r="C99" s="4">
+      <c r="D99" s="4">
         <v>61.1</v>
       </c>
-      <c r="D99" s="4">
+      <c r="E99" s="4">
         <v>10.465853689999999</v>
       </c>
-      <c r="E99" s="4">
+      <c r="F99" s="4">
         <v>5.3181044120000003</v>
       </c>
-      <c r="F99" s="5">
+      <c r="G99" s="5">
         <v>1330.4199169999999</v>
       </c>
-      <c r="G99" s="9">
+      <c r="H99" s="9">
         <v>1578.9983706917492</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" t="s">
+        <v>288</v>
+      </c>
+      <c r="C100" s="3">
         <v>0.746</v>
       </c>
-      <c r="C100" s="4">
+      <c r="D100" s="4">
         <v>72.150999999999996</v>
       </c>
-      <c r="D100" s="4">
+      <c r="E100" s="4">
         <v>13.977117</v>
       </c>
-      <c r="E100" s="4">
+      <c r="F100" s="4">
         <v>7.77860643</v>
       </c>
-      <c r="F100" s="5">
+      <c r="G100" s="5">
         <v>19751.567579999999</v>
       </c>
-      <c r="G100" s="9">
+      <c r="H100" s="9">
         <v>11456.076814966835</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B101" s="3">
+      <c r="C101" s="3">
         <v>0.94199999999999995</v>
       </c>
-      <c r="C101" s="4">
+      <c r="D101" s="4">
         <v>84.656000000000006</v>
       </c>
-      <c r="D101" s="4">
+      <c r="E101" s="4">
         <v>15.46640015</v>
       </c>
-      <c r="E101" s="4">
+      <c r="F101" s="4">
         <v>12.351169000000001</v>
       </c>
-      <c r="F101" s="5">
+      <c r="G101" s="5">
         <v>146673.2415</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" t="s">
+        <v>291</v>
+      </c>
+      <c r="C102" s="3">
         <v>0.879</v>
       </c>
-      <c r="C102" s="4">
+      <c r="D102" s="4">
         <v>74.293000000000006</v>
       </c>
-      <c r="D102" s="4">
+      <c r="E102" s="4">
         <v>16.399829860000001</v>
       </c>
-      <c r="E102" s="4">
+      <c r="F102" s="4">
         <v>13.498100279999999</v>
       </c>
-      <c r="F102" s="5">
+      <c r="G102" s="5">
         <v>38131.23588</v>
       </c>
-      <c r="G102" s="9">
+      <c r="H102" s="9">
         <v>46609.15587231017</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" t="s">
+        <v>292</v>
+      </c>
+      <c r="C103" s="3">
         <v>0.92700000000000005</v>
       </c>
-      <c r="C103" s="4">
+      <c r="D103" s="4">
         <v>82.590999999999994</v>
       </c>
-      <c r="D103" s="4">
+      <c r="E103" s="4">
         <v>14.197050089999999</v>
       </c>
-      <c r="E103" s="4">
+      <c r="F103" s="4">
         <v>12.9600811</v>
       </c>
-      <c r="F103" s="5">
+      <c r="G103" s="5">
         <v>78554.236399999994</v>
       </c>
-      <c r="G103" s="9">
+      <c r="H103" s="9">
         <v>134507.66753053913</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" t="s">
+        <v>296</v>
+      </c>
+      <c r="C104" s="3">
         <v>0.48699999999999999</v>
       </c>
-      <c r="C104" s="4">
+      <c r="D104" s="4">
         <v>65.23</v>
       </c>
-      <c r="D104" s="4">
+      <c r="E104" s="4">
         <v>9.2134358790000004</v>
       </c>
-      <c r="E104" s="4">
+      <c r="F104" s="4">
         <v>4.5925202369999996</v>
       </c>
-      <c r="F104" s="5">
+      <c r="G104" s="5">
         <v>1463.5479250000001</v>
       </c>
-      <c r="G104" s="9">
+      <c r="H104" s="9">
         <v>1622.610824453822</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" t="s">
+        <v>305</v>
+      </c>
+      <c r="C105" s="3">
         <v>0.50800000000000001</v>
       </c>
-      <c r="C105" s="4">
+      <c r="D105" s="4">
         <v>62.898000000000003</v>
       </c>
-      <c r="D105" s="4">
+      <c r="E105" s="4">
         <v>11.50487088</v>
       </c>
-      <c r="E105" s="4">
+      <c r="F105" s="4">
         <v>5.2437400820000004</v>
       </c>
-      <c r="F105" s="5">
+      <c r="G105" s="5">
         <v>1432.472806</v>
       </c>
-      <c r="G105" s="9">
+      <c r="H105" s="9">
         <v>1659.9593382516805</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" t="s">
+        <v>306</v>
+      </c>
+      <c r="C106" s="3">
         <v>0.80700000000000005</v>
       </c>
-      <c r="C106" s="4">
+      <c r="D106" s="4">
         <v>76.260000000000005</v>
       </c>
-      <c r="D106" s="4">
+      <c r="E106" s="4">
         <v>12.93247032</v>
       </c>
-      <c r="E106" s="4">
+      <c r="F106" s="4">
         <v>10.74828052</v>
       </c>
-      <c r="F106" s="5">
+      <c r="G106" s="5">
         <v>27295.412240000001</v>
       </c>
-      <c r="G106" s="9">
+      <c r="H106" s="9">
         <v>32079.151515748945</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B107" s="3">
+      <c r="C107" s="3">
         <v>0.76200000000000001</v>
       </c>
-      <c r="C107" s="4">
+      <c r="D107" s="4">
         <v>80.838999999999999</v>
       </c>
-      <c r="D107" s="4">
+      <c r="E107" s="4">
         <v>12.17795095</v>
       </c>
-      <c r="E107" s="4">
+      <c r="F107" s="4">
         <v>7.7623925439999999</v>
       </c>
-      <c r="F107" s="5">
+      <c r="G107" s="5">
         <v>18846.79219</v>
       </c>
-      <c r="G107" s="9">
+      <c r="H107" s="9">
         <v>21357.811251115312</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" t="s">
+        <v>298</v>
+      </c>
+      <c r="C108" s="3">
         <v>0.41</v>
       </c>
-      <c r="C108" s="4">
+      <c r="D108" s="4">
         <v>59.417000000000002</v>
       </c>
-      <c r="D108" s="4">
+      <c r="E108" s="4">
         <v>7.0372496030000002</v>
       </c>
-      <c r="E108" s="4">
+      <c r="F108" s="4">
         <v>1.6267100569999999</v>
       </c>
-      <c r="F108" s="5">
+      <c r="G108" s="5">
         <v>2043.672433</v>
       </c>
-      <c r="G108" s="9">
+      <c r="H108" s="9">
         <v>2357.1903540478597</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" t="s">
+        <v>299</v>
+      </c>
+      <c r="C109" s="3">
         <v>0.91500000000000004</v>
       </c>
-      <c r="C109" s="4">
+      <c r="D109" s="4">
         <v>83.703999999999994</v>
       </c>
-      <c r="D109" s="4">
+      <c r="E109" s="4">
         <v>15.86133957</v>
       </c>
-      <c r="E109" s="4">
+      <c r="F109" s="4">
         <v>12.21026039</v>
       </c>
-      <c r="F109" s="5">
+      <c r="G109" s="5">
         <v>44464.030570000003</v>
       </c>
-      <c r="G109" s="9">
+      <c r="H109" s="9">
         <v>57607.558178691463</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B110" s="3">
+      <c r="C110" s="3">
         <v>0.73099999999999998</v>
       </c>
-      <c r="C110" s="4">
+      <c r="D110" s="4">
         <v>65.146000000000001</v>
       </c>
-      <c r="D110" s="4">
+      <c r="E110" s="4">
         <v>16.386060709999999</v>
       </c>
-      <c r="E110" s="4">
+      <c r="F110" s="4">
         <v>12.818367179999999</v>
       </c>
-      <c r="F110" s="5">
+      <c r="G110" s="5">
         <v>6855.2345660000001</v>
       </c>
-      <c r="G110" s="9">
+      <c r="H110" s="9">
         <v>6844.3346778725299</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" t="s">
+        <v>304</v>
+      </c>
+      <c r="C111" s="3">
         <v>0.54</v>
       </c>
-      <c r="C111" s="4">
+      <c r="D111" s="4">
         <v>64.691000000000003</v>
       </c>
-      <c r="D111" s="4">
+      <c r="E111" s="4">
         <v>8.0518503189999997</v>
       </c>
-      <c r="E111" s="4">
+      <c r="F111" s="4">
         <v>4.7540633440000004</v>
       </c>
-      <c r="F111" s="5">
+      <c r="G111" s="5">
         <v>5343.564069</v>
       </c>
-      <c r="G111" s="9">
+      <c r="H111" s="9">
         <v>6053.2617870487566</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B112" s="3">
+      <c r="C112" s="3">
         <v>0.79600000000000004</v>
       </c>
-      <c r="C112" s="4">
+      <c r="D112" s="4">
         <v>73.974999999999994</v>
       </c>
-      <c r="D112" s="4">
+      <c r="E112" s="4">
         <v>14.61009979</v>
       </c>
-      <c r="E112" s="4">
+      <c r="F112" s="4">
         <v>9.9920498630000001</v>
       </c>
-      <c r="F112" s="5">
+      <c r="G112" s="5">
         <v>23251.620709999999</v>
       </c>
-      <c r="G112" s="9">
+      <c r="H112" s="9">
         <v>24831.372700071155</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" t="s">
+        <v>297</v>
+      </c>
+      <c r="C113" s="3">
         <v>0.78100000000000003</v>
       </c>
-      <c r="C113" s="4">
+      <c r="D113" s="4">
         <v>74.831999999999994</v>
       </c>
-      <c r="D113" s="4">
+      <c r="E113" s="4">
         <v>14.50529957</v>
       </c>
-      <c r="E113" s="4">
+      <c r="F113" s="4">
         <v>9.2210502620000003</v>
       </c>
-      <c r="F113" s="5">
+      <c r="G113" s="5">
         <v>19138.007259999998</v>
       </c>
-      <c r="G113" s="9">
+      <c r="H113" s="9">
         <v>21381.429310422893</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B114" s="3">
+      <c r="C114" s="3">
         <v>0.63400000000000001</v>
       </c>
-      <c r="C114" s="4">
+      <c r="D114" s="4">
         <v>70.924999999999997</v>
       </c>
-      <c r="D114" s="4">
+      <c r="E114" s="4">
         <v>12.615048</v>
       </c>
-      <c r="E114" s="4">
+      <c r="F114" s="4">
         <v>7.3325239800000004</v>
       </c>
-      <c r="F114" s="5">
+      <c r="G114" s="5">
         <v>3709.154916</v>
       </c>
-      <c r="G114" s="9">
+      <c r="H114" s="9">
         <v>3874.1990545970129</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" t="s">
+        <v>295</v>
+      </c>
+      <c r="C115" s="3">
         <v>0.76300000000000001</v>
       </c>
-      <c r="C115" s="4">
+      <c r="D115" s="4">
         <v>68.620999999999995</v>
       </c>
-      <c r="D115" s="4">
+      <c r="E115" s="4">
         <v>14.90598011</v>
       </c>
-      <c r="E115" s="4">
+      <c r="F115" s="4">
         <v>11.8338152</v>
       </c>
-      <c r="F115" s="5">
+      <c r="G115" s="5">
         <v>12963.61829</v>
       </c>
-      <c r="G115" s="9">
+      <c r="H115" s="9">
         <v>15291.128735933127</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" t="s">
+        <v>302</v>
+      </c>
+      <c r="C116" s="3">
         <v>0.74099999999999999</v>
       </c>
-      <c r="C116" s="4">
+      <c r="D116" s="4">
         <v>72.667000000000002</v>
       </c>
-      <c r="D116" s="4">
+      <c r="E116" s="4">
         <v>14.517195149999999</v>
       </c>
-      <c r="E116" s="4">
+      <c r="F116" s="4">
         <v>9.4237003329999993</v>
       </c>
-      <c r="F116" s="5">
+      <c r="G116" s="5">
         <v>10350.86141</v>
       </c>
-      <c r="G116" s="9">
+      <c r="H116" s="9">
         <v>15310.434946916346</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" t="s">
+        <v>301</v>
+      </c>
+      <c r="C117" s="3">
         <v>0.84399999999999997</v>
       </c>
-      <c r="C117" s="4">
+      <c r="D117" s="4">
         <v>76.844999999999999</v>
       </c>
-      <c r="D117" s="4">
+      <c r="E117" s="4">
         <v>15.08475971</v>
       </c>
-      <c r="E117" s="4">
+      <c r="F117" s="4">
         <v>12.616212880000001</v>
       </c>
-      <c r="F117" s="5">
+      <c r="G117" s="5">
         <v>22513.263139999999</v>
       </c>
-      <c r="G117" s="9">
+      <c r="H117" s="9">
         <v>25670.039056473237</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" t="s">
+        <v>294</v>
+      </c>
+      <c r="C118" s="3">
         <v>0.69799999999999995</v>
       </c>
-      <c r="C118" s="4">
+      <c r="D118" s="4">
         <v>74.972999999999999</v>
       </c>
-      <c r="D118" s="4">
+      <c r="E118" s="4">
         <v>14.59442043</v>
       </c>
-      <c r="E118" s="4">
+      <c r="F118" s="4">
         <v>6.05</v>
       </c>
-      <c r="F118" s="5">
+      <c r="G118" s="5">
         <v>7954.5224609999996</v>
       </c>
-      <c r="G118" s="9">
+      <c r="H118" s="9">
         <v>8666.0791015625</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" t="s">
+        <v>303</v>
+      </c>
+      <c r="C119" s="3">
         <v>0.46100000000000002</v>
       </c>
-      <c r="C119" s="4">
+      <c r="D119" s="4">
         <v>59.625</v>
       </c>
-      <c r="D119" s="4">
+      <c r="E119" s="4">
         <v>10.725323449999999</v>
       </c>
-      <c r="E119" s="4">
+      <c r="F119" s="4">
         <v>3.8600900170000001</v>
       </c>
-      <c r="F119" s="5">
+      <c r="G119" s="5">
         <v>1219.2413610000001</v>
       </c>
-      <c r="G119" s="9">
+      <c r="H119" s="9">
         <v>1476.6656029955234</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" t="s">
+        <v>300</v>
+      </c>
+      <c r="C120" s="3">
         <v>0.60799999999999998</v>
       </c>
-      <c r="C120" s="4">
+      <c r="D120" s="4">
         <v>67.256</v>
       </c>
-      <c r="D120" s="4">
+      <c r="E120" s="4">
         <v>12.06090998</v>
       </c>
-      <c r="E120" s="4">
+      <c r="F120" s="4">
         <v>6.5181576970000004</v>
       </c>
-      <c r="F120" s="5">
+      <c r="G120" s="5">
         <v>4037.7051409999999</v>
       </c>
-      <c r="G120" s="9">
+      <c r="H120" s="9">
         <v>5350.4766689955977</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" t="s">
+        <v>307</v>
+      </c>
+      <c r="C121" s="3">
         <v>0.61</v>
       </c>
-      <c r="C121" s="4">
+      <c r="D121" s="4">
         <v>58.058999999999997</v>
       </c>
-      <c r="D121" s="4">
+      <c r="E121" s="4">
         <v>11.75997928</v>
       </c>
-      <c r="E121" s="4">
+      <c r="F121" s="4">
         <v>7.2434582939999999</v>
       </c>
-      <c r="F121" s="5">
+      <c r="G121" s="5">
         <v>9200.0265990000007</v>
       </c>
-      <c r="G121" s="9">
+      <c r="H121" s="9">
         <v>9948.4645848726559</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B122" s="3">
+      <c r="C122" s="3">
         <v>0.69599999999999995</v>
       </c>
-      <c r="C122" s="4">
+      <c r="D122" s="4">
         <v>64.013999999999996</v>
       </c>
-      <c r="D122" s="4">
+      <c r="E122" s="4">
         <v>12.56089218</v>
       </c>
-      <c r="E122" s="4">
+      <c r="F122" s="4">
         <v>9.2479750000000003</v>
       </c>
-      <c r="F122" s="5">
+      <c r="G122" s="5">
         <v>14938.55659</v>
       </c>
-      <c r="G122" s="9">
+      <c r="H122" s="9">
         <v>12467.346889204038</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" t="s">
+        <v>314</v>
+      </c>
+      <c r="C123" s="3">
         <v>0.60099999999999998</v>
       </c>
-      <c r="C123" s="4">
+      <c r="D123" s="4">
         <v>70.483999999999995</v>
       </c>
-      <c r="D123" s="4">
+      <c r="E123" s="4">
         <v>12.64451981</v>
       </c>
-      <c r="E123" s="4">
+      <c r="F123" s="4">
         <v>4.4855987580000001</v>
       </c>
-      <c r="F123" s="5">
+      <c r="G123" s="5">
         <v>4025.5546850000001</v>
       </c>
-      <c r="G123" s="9">
+      <c r="H123" s="9">
         <v>4763.387510823889</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" t="s">
+        <v>312</v>
+      </c>
+      <c r="C124" s="3">
         <v>0.94599999999999995</v>
       </c>
-      <c r="C124" s="4">
+      <c r="D124" s="4">
         <v>82.450999999999993</v>
       </c>
-      <c r="D124" s="4">
+      <c r="E124" s="4">
         <v>18.583480829999999</v>
       </c>
-      <c r="E124" s="4">
+      <c r="F124" s="4">
         <v>12.581629749999999</v>
       </c>
-      <c r="F124" s="5">
+      <c r="G124" s="5">
         <v>57278.310149999998</v>
       </c>
-      <c r="G124" s="9">
+      <c r="H124" s="9">
         <v>71259.650744376457</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" t="s">
+        <v>308</v>
+      </c>
+      <c r="C125" s="3">
         <v>0.93899999999999995</v>
       </c>
-      <c r="C125" s="4">
+      <c r="D125" s="4">
         <v>83.006</v>
       </c>
-      <c r="D125" s="4">
+      <c r="E125" s="4">
         <v>19.682340620000002</v>
       </c>
-      <c r="E125" s="4">
+      <c r="F125" s="4">
         <v>12.94468975</v>
       </c>
-      <c r="F125" s="5">
+      <c r="G125" s="5">
         <v>43665.498480000002</v>
       </c>
-      <c r="G125" s="9">
+      <c r="H125" s="9">
         <v>49224.594108405647</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" t="s">
+        <v>311</v>
+      </c>
+      <c r="C126" s="3">
         <v>0.66900000000000004</v>
       </c>
-      <c r="C126" s="4">
+      <c r="D126" s="4">
         <v>74.614999999999995</v>
       </c>
-      <c r="D126" s="4">
+      <c r="E126" s="4">
         <v>12.583477869999999</v>
       </c>
-      <c r="E126" s="4">
+      <c r="F126" s="4">
         <v>7.26</v>
       </c>
-      <c r="F126" s="5">
+      <c r="G126" s="5">
         <v>5426.5061800000003</v>
       </c>
-      <c r="G126" s="9">
+      <c r="H126" s="9">
         <v>7258.6817171141174</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" t="s">
+        <v>309</v>
+      </c>
+      <c r="C127" s="3">
         <v>0.39400000000000002</v>
       </c>
-      <c r="C127" s="4">
+      <c r="D127" s="4">
         <v>62.08</v>
       </c>
-      <c r="D127" s="4">
+      <c r="E127" s="4">
         <v>7.1861314280000004</v>
       </c>
-      <c r="E127" s="4">
+      <c r="F127" s="4">
         <v>1.341352433</v>
       </c>
-      <c r="F127" s="5">
+      <c r="G127" s="5">
         <v>1283.3092349999999</v>
       </c>
-      <c r="G127" s="9">
+      <c r="H127" s="9">
         <v>1717.5189145768409</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" t="s">
+        <v>310</v>
+      </c>
+      <c r="C128" s="3">
         <v>0.54800000000000004</v>
       </c>
-      <c r="C128" s="4">
+      <c r="D128" s="4">
         <v>53.633000000000003</v>
       </c>
-      <c r="D128" s="4">
+      <c r="E128" s="4">
         <v>10.51407</v>
       </c>
-      <c r="E128" s="4">
+      <c r="F128" s="4">
         <v>7.5859699249999997</v>
       </c>
-      <c r="F128" s="5">
+      <c r="G128" s="5">
         <v>4754.8364080000001</v>
       </c>
-      <c r="G128" s="9">
+      <c r="H128" s="9">
         <v>5552.8376499495726</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B129" s="3">
+      <c r="C129" s="3">
         <v>0.76500000000000001</v>
       </c>
-      <c r="C129" s="4">
+      <c r="D129" s="4">
         <v>73.888000000000005</v>
       </c>
-      <c r="D129" s="4">
+      <c r="E129" s="4">
         <v>13.00483036</v>
       </c>
-      <c r="E129" s="4">
+      <c r="F129" s="4">
         <v>10.22815037</v>
       </c>
-      <c r="F129" s="5">
+      <c r="G129" s="5">
         <v>16395.75173</v>
       </c>
-      <c r="G129" s="9">
+      <c r="H129" s="9">
         <v>22801.672503408641</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" t="s">
+        <v>313</v>
+      </c>
+      <c r="C130" s="3">
         <v>0.96599999999999997</v>
       </c>
-      <c r="C130" s="4">
+      <c r="D130" s="4">
         <v>83.393000000000001</v>
       </c>
-      <c r="D130" s="4">
+      <c r="E130" s="4">
         <v>18.638460160000001</v>
       </c>
-      <c r="E130" s="4">
+      <c r="F130" s="4">
         <v>13.062342790000001</v>
       </c>
-      <c r="F130" s="5">
+      <c r="G130" s="5">
         <v>69189.76165</v>
       </c>
-      <c r="G130" s="9">
+      <c r="H130" s="9">
         <v>90756.895766965594</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" t="s">
+        <v>315</v>
+      </c>
+      <c r="C131" s="3">
         <v>0.81899999999999995</v>
       </c>
-      <c r="C131" s="4">
+      <c r="D131" s="4">
         <v>73.935000000000002</v>
       </c>
-      <c r="D131" s="4">
+      <c r="E131" s="4">
         <v>12.96403027</v>
       </c>
-      <c r="E131" s="4">
+      <c r="F131" s="4">
         <v>11.89274979</v>
       </c>
-      <c r="F131" s="5">
+      <c r="G131" s="5">
         <v>32967.438269999999</v>
       </c>
-      <c r="G131" s="9">
+      <c r="H131" s="9">
         <v>40366.458231346973</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" t="s">
+        <v>316</v>
+      </c>
+      <c r="C132" s="3">
         <v>0.54</v>
       </c>
-      <c r="C132" s="4">
+      <c r="D132" s="4">
         <v>66.430999999999997</v>
       </c>
-      <c r="D132" s="4">
+      <c r="E132" s="4">
         <v>7.8951084900000001</v>
       </c>
-      <c r="E132" s="4">
+      <c r="F132" s="4">
         <v>4.4223190189999997</v>
       </c>
-      <c r="F132" s="5">
+      <c r="G132" s="5">
         <v>5374.2704229999999</v>
       </c>
-      <c r="G132" s="9">
+      <c r="H132" s="9">
         <v>5526.2792831021306</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B133" s="3">
+      <c r="C133" s="3">
         <v>0.79700000000000004</v>
       </c>
-      <c r="C133" s="4">
+      <c r="D133" s="4">
         <v>65.361999999999995</v>
       </c>
-      <c r="D133" s="4">
+      <c r="E133" s="4">
         <v>17.219875689999999</v>
       </c>
-      <c r="E133" s="4">
+      <c r="F133" s="4">
         <v>13.04790021</v>
       </c>
-      <c r="F133" s="5">
+      <c r="G133" s="5">
         <v>19343.811989999998</v>
       </c>
-      <c r="G133" s="9">
+      <c r="H133" s="9">
         <v>15477.551983150919</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="3">
+      <c r="C134" s="3">
         <v>0.71599999999999997</v>
       </c>
-      <c r="C134" s="4">
+      <c r="D134" s="4">
         <v>73.444000000000003</v>
       </c>
-      <c r="D134" s="4">
+      <c r="E134" s="4">
         <v>13.154740329999999</v>
       </c>
-      <c r="E134" s="4">
+      <c r="F134" s="4">
         <v>9.9384803769999994</v>
       </c>
-      <c r="F134" s="5">
+      <c r="G134" s="5">
         <v>6936.2586840000004</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" t="s">
+        <v>317</v>
+      </c>
+      <c r="C135" s="3">
         <v>0.82</v>
       </c>
-      <c r="C135" s="4">
+      <c r="D135" s="4">
         <v>76.825999999999993</v>
       </c>
-      <c r="D135" s="4">
+      <c r="E135" s="4">
         <v>13.213814729999999</v>
       </c>
-      <c r="E135" s="4">
+      <c r="F135" s="4">
         <v>10.68696295</v>
       </c>
-      <c r="F135" s="5">
+      <c r="G135" s="5">
         <v>32029.360250000002</v>
       </c>
-      <c r="G135" s="9">
+      <c r="H135" s="9">
         <v>33833.026507828421</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" t="s">
+        <v>320</v>
+      </c>
+      <c r="C136" s="3">
         <v>0.56799999999999995</v>
       </c>
-      <c r="C136" s="4">
+      <c r="D136" s="4">
         <v>65.957999999999998</v>
       </c>
-      <c r="D136" s="4">
+      <c r="E136" s="4">
         <v>11.127367980000001</v>
       </c>
-      <c r="E136" s="4">
+      <c r="F136" s="4">
         <v>4.9336311459999997</v>
       </c>
-      <c r="F136" s="5">
+      <c r="G136" s="5">
         <v>3710.3268849999999</v>
       </c>
-      <c r="G136" s="9">
+      <c r="H136" s="9">
         <v>4125.4930356843352</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" t="s">
+        <v>323</v>
+      </c>
+      <c r="C137" s="3">
         <v>0.73099999999999998</v>
       </c>
-      <c r="C137" s="4">
+      <c r="D137" s="4">
         <v>70.474999999999994</v>
       </c>
-      <c r="D137" s="4">
+      <c r="E137" s="4">
         <v>13.91056957</v>
       </c>
-      <c r="E137" s="4">
+      <c r="F137" s="4">
         <v>8.861840248</v>
       </c>
-      <c r="F137" s="5">
+      <c r="G137" s="5">
         <v>13161.075220000001</v>
       </c>
-      <c r="G137" s="9">
+      <c r="H137" s="9">
         <v>15259.145631183967</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" t="s">
+        <v>318</v>
+      </c>
+      <c r="C138" s="3">
         <v>0.76200000000000001</v>
       </c>
-      <c r="C138" s="4">
+      <c r="D138" s="4">
         <v>73.385000000000005</v>
       </c>
-      <c r="D138" s="4">
+      <c r="E138" s="4">
         <v>14.80487907</v>
       </c>
-      <c r="E138" s="4">
+      <c r="F138" s="4">
         <v>10.01696229</v>
       </c>
-      <c r="F138" s="5">
+      <c r="G138" s="5">
         <v>11916.35952</v>
       </c>
-      <c r="G138" s="9">
+      <c r="H138" s="9">
         <v>15548.931618493858</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" t="s">
+        <v>319</v>
+      </c>
+      <c r="C139" s="3">
         <v>0.71</v>
       </c>
-      <c r="C139" s="4">
+      <c r="D139" s="4">
         <v>72.186999999999998</v>
       </c>
-      <c r="D139" s="4">
+      <c r="E139" s="4">
         <v>12.78335953</v>
       </c>
-      <c r="E139" s="4">
+      <c r="F139" s="4">
         <v>8.9714095589999996</v>
       </c>
-      <c r="F139" s="5">
+      <c r="G139" s="5">
         <v>9058.8405579999999</v>
       </c>
-      <c r="G139" s="9">
+      <c r="H139" s="9">
         <v>9457.1039540288311</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" t="s">
+        <v>321</v>
+      </c>
+      <c r="C140" s="3">
         <v>0.88100000000000001</v>
       </c>
-      <c r="C140" s="4">
+      <c r="D140" s="4">
         <v>76.995999999999995</v>
       </c>
-      <c r="D140" s="4">
+      <c r="E140" s="4">
         <v>15.93451977</v>
       </c>
-      <c r="E140" s="4">
+      <c r="F140" s="4">
         <v>13.164750099999999</v>
       </c>
-      <c r="F140" s="5">
+      <c r="G140" s="5">
         <v>35150.9519</v>
       </c>
-      <c r="G140" s="9">
+      <c r="H140" s="9">
         <v>43365.83176424745</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" t="s">
+        <v>322</v>
+      </c>
+      <c r="C141" s="3">
         <v>0.874</v>
       </c>
-      <c r="C141" s="4">
+      <c r="D141" s="4">
         <v>82.24</v>
       </c>
-      <c r="D141" s="4">
+      <c r="E141" s="4">
         <v>16.82140923</v>
       </c>
-      <c r="E141" s="4">
+      <c r="F141" s="4">
         <v>9.5759401319999995</v>
       </c>
-      <c r="F141" s="5">
+      <c r="G141" s="5">
         <v>35314.99828</v>
       </c>
-      <c r="G141" s="9">
+      <c r="H141" s="9">
         <v>41033.811346077346</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" t="s">
+        <v>324</v>
+      </c>
+      <c r="C142" s="3">
         <v>0.875</v>
       </c>
-      <c r="C142" s="4">
+      <c r="D142" s="4">
         <v>81.558999999999997</v>
       </c>
-      <c r="D142" s="4">
+      <c r="E142" s="4">
         <v>13.26426983</v>
       </c>
-      <c r="E142" s="4">
+      <c r="F142" s="4">
         <v>10.131721900000001</v>
       </c>
-      <c r="F142" s="5">
+      <c r="G142" s="5">
         <v>95944.377540000001</v>
       </c>
-      <c r="G142" s="9">
+      <c r="H142" s="9">
         <v>114740.12361464697</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" t="s">
+        <v>325</v>
+      </c>
+      <c r="C143" s="3">
         <v>0.82699999999999996</v>
       </c>
-      <c r="C143" s="4">
+      <c r="D143" s="4">
         <v>74.117000000000004</v>
       </c>
-      <c r="D143" s="4">
+      <c r="E143" s="4">
         <v>14.507530210000001</v>
       </c>
-      <c r="E143" s="4">
+      <c r="F143" s="4">
         <v>11.36019615</v>
       </c>
-      <c r="F143" s="5">
+      <c r="G143" s="5">
         <v>31641.383679999999</v>
       </c>
-      <c r="G143" s="9">
+      <c r="H143" s="9">
         <v>39344.56108153642</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" t="s">
+        <v>326</v>
+      </c>
+      <c r="C144" s="3">
         <v>0.82099999999999995</v>
       </c>
-      <c r="C144" s="4">
+      <c r="D144" s="4">
         <v>70.116</v>
       </c>
-      <c r="D144" s="4">
+      <c r="E144" s="4">
         <v>15.66174936</v>
       </c>
-      <c r="E144" s="4">
+      <c r="F144" s="4">
         <v>12.41152954</v>
       </c>
-      <c r="F144" s="5">
+      <c r="G144" s="5">
         <v>26991.849610000001</v>
       </c>
-      <c r="G144" s="9">
+      <c r="H144" s="9">
         <v>38263.6171875</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" t="s">
+        <v>327</v>
+      </c>
+      <c r="C145" s="3">
         <v>0.54800000000000004</v>
       </c>
-      <c r="C145" s="4">
+      <c r="D145" s="4">
         <v>67.129000000000005</v>
       </c>
-      <c r="D145" s="4">
+      <c r="E145" s="4">
         <v>11.383520130000001</v>
       </c>
-      <c r="E145" s="4">
+      <c r="F145" s="4">
         <v>4.8783102039999999</v>
       </c>
-      <c r="F145" s="5">
+      <c r="G145" s="5">
         <v>2316.8092769999998</v>
       </c>
-      <c r="G145" s="9">
+      <c r="H145" s="9">
         <v>2889.8848532610623</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B146" s="3">
+      <c r="C146" s="3">
         <v>0.83799999999999997</v>
       </c>
-      <c r="C146" s="4">
+      <c r="D146" s="4">
         <v>72.027000000000001</v>
       </c>
-      <c r="D146" s="4">
+      <c r="E146" s="4">
         <v>18.407030110000001</v>
       </c>
-      <c r="E146" s="4">
+      <c r="F146" s="4">
         <v>10.8494008</v>
       </c>
-      <c r="F146" s="5">
+      <c r="G146" s="5">
         <v>28441.68074</v>
       </c>
-      <c r="G146" s="9">
+      <c r="H146" s="9">
         <v>29761.275351875272</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B147" s="3">
+      <c r="C147" s="3">
         <v>0.72499999999999998</v>
       </c>
-      <c r="C147" s="4">
+      <c r="D147" s="4">
         <v>71.293999999999997</v>
       </c>
-      <c r="D147" s="4">
+      <c r="E147" s="4">
         <v>12.710320469999999</v>
       </c>
-      <c r="E147" s="4">
+      <c r="F147" s="4">
         <v>8.5769734250000003</v>
       </c>
-      <c r="F147" s="5">
+      <c r="G147" s="5">
         <v>14778.346299999999</v>
       </c>
-      <c r="G147" s="9">
+      <c r="H147" s="9">
         <v>22961.962217500764</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B148" s="3">
+      <c r="C148" s="3">
         <v>0.77200000000000002</v>
       </c>
-      <c r="C148" s="4">
+      <c r="D148" s="4">
         <v>68.971999999999994</v>
       </c>
-      <c r="D148" s="4">
+      <c r="E148" s="4">
         <v>16.2530213</v>
       </c>
-      <c r="E148" s="4">
+      <c r="F148" s="4">
         <v>10.99625387</v>
       </c>
-      <c r="F148" s="5">
+      <c r="G148" s="5">
         <v>14049.147989999999</v>
       </c>
-      <c r="G148" s="9">
+      <c r="H148" s="9">
         <v>17172.20761650458</v>
       </c>
-      <c r="I148" s="6"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J148" s="6"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B149" s="3">
+      <c r="C149" s="3">
         <v>0.70199999999999996</v>
       </c>
-      <c r="C149" s="4">
+      <c r="D149" s="4">
         <v>72.597999999999999</v>
       </c>
-      <c r="D149" s="4">
+      <c r="E149" s="4">
         <v>12.436400000000001</v>
       </c>
-      <c r="E149" s="4">
+      <c r="F149" s="4">
         <v>11.367355849999999</v>
       </c>
-      <c r="F149" s="5">
+      <c r="G149" s="5">
         <v>4970.2320739999996</v>
       </c>
-      <c r="G149" s="9">
+      <c r="H149" s="9">
         <v>5843.7717916640313</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B150" s="3">
+      <c r="C150" s="3">
         <v>0.86699999999999999</v>
       </c>
-      <c r="C150" s="4">
+      <c r="D150" s="4">
         <v>83.433000000000007</v>
       </c>
-      <c r="D150" s="4">
+      <c r="E150" s="4">
         <v>12.40295982</v>
       </c>
-      <c r="E150" s="4">
+      <c r="F150" s="4">
         <v>10.52074301</v>
       </c>
-      <c r="F150" s="5">
+      <c r="G150" s="5">
         <v>57686.543339999997</v>
       </c>
-      <c r="G150" s="9">
+      <c r="H150" s="9">
         <v>70887.573899814961</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B151" s="3">
+      <c r="C151" s="3">
         <v>0.61299999999999999</v>
       </c>
-      <c r="C151" s="4">
+      <c r="D151" s="4">
         <v>68.793999999999997</v>
       </c>
-      <c r="D151" s="4">
+      <c r="E151" s="4">
         <v>12.6637182</v>
       </c>
-      <c r="E151" s="4">
+      <c r="F151" s="4">
         <v>5.9157889179999996</v>
       </c>
-      <c r="F151" s="5">
+      <c r="G151" s="5">
         <v>4054.106945</v>
       </c>
-      <c r="G151" s="9">
+      <c r="H151" s="9">
         <v>5632.1389071504727</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" t="s">
+        <v>328</v>
+      </c>
+      <c r="C152" s="3">
         <v>0.875</v>
       </c>
-      <c r="C152" s="4">
+      <c r="D152" s="4">
         <v>77.905000000000001</v>
       </c>
-      <c r="D152" s="4">
+      <c r="E152" s="4">
         <v>15.17204484</v>
       </c>
-      <c r="E152" s="4">
+      <c r="F152" s="4">
         <v>11.310529710000001</v>
       </c>
-      <c r="F152" s="5">
+      <c r="G152" s="5">
         <v>50620.437059999997</v>
       </c>
-      <c r="G152" s="9">
+      <c r="H152" s="9">
         <v>57351.87438669234</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" t="s">
+        <v>331</v>
+      </c>
+      <c r="C153" s="3">
         <v>0.51700000000000002</v>
       </c>
-      <c r="C153" s="4">
+      <c r="D153" s="4">
         <v>67.912999999999997</v>
       </c>
-      <c r="D153" s="4">
+      <c r="E153" s="4">
         <v>9.1445503230000007</v>
       </c>
-      <c r="E153" s="4">
+      <c r="F153" s="4">
         <v>2.8873668600000002</v>
       </c>
-      <c r="F153" s="5">
+      <c r="G153" s="5">
         <v>3463.8060759999998</v>
       </c>
-      <c r="G153" s="9">
+      <c r="H153" s="9">
         <v>4227.7334184210622</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" t="s">
+        <v>336</v>
+      </c>
+      <c r="C154" s="3">
         <v>0.80500000000000005</v>
       </c>
-      <c r="C154" s="4">
+      <c r="D154" s="4">
         <v>74.137</v>
       </c>
-      <c r="D154" s="4">
+      <c r="E154" s="4">
         <v>14.50444031</v>
       </c>
-      <c r="E154" s="4">
+      <c r="F154" s="4">
         <v>11.5047611</v>
       </c>
-      <c r="F154" s="5">
+      <c r="G154" s="5">
         <v>19494.00891</v>
       </c>
-      <c r="G154" s="9">
+      <c r="H154" s="9">
         <v>24612.233899262068</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B155" s="3">
+      <c r="C155" s="3">
         <v>0.80200000000000005</v>
       </c>
-      <c r="C155" s="4">
+      <c r="D155" s="4">
         <v>71.738</v>
       </c>
-      <c r="D155" s="4">
+      <c r="E155" s="4">
         <v>13.891790390000001</v>
       </c>
-      <c r="E155" s="4">
+      <c r="F155" s="4">
         <v>11.199949999999999</v>
       </c>
-      <c r="F155" s="5">
+      <c r="G155" s="5">
         <v>28385.748060000002</v>
       </c>
-      <c r="G155" s="9">
+      <c r="H155" s="9">
         <v>28540.76232211891</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" t="s">
+        <v>333</v>
+      </c>
+      <c r="C156" s="3">
         <v>0.45800000000000002</v>
       </c>
-      <c r="C156" s="4">
+      <c r="D156" s="4">
         <v>60.411000000000001</v>
       </c>
-      <c r="D156" s="4">
+      <c r="E156" s="4">
         <v>9.0163482439999996</v>
       </c>
-      <c r="E156" s="4">
+      <c r="F156" s="4">
         <v>3.519426358</v>
       </c>
-      <c r="F156" s="5">
+      <c r="G156" s="5">
         <v>1612.6665419999999</v>
       </c>
-      <c r="G156" s="9">
+      <c r="H156" s="9">
         <v>2934.0301345384319</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B157" s="3">
+      <c r="C157" s="3">
         <v>0.94899999999999995</v>
       </c>
-      <c r="C157" s="4">
+      <c r="D157" s="4">
         <v>84.132999999999996</v>
       </c>
-      <c r="D157" s="4">
+      <c r="E157" s="4">
         <v>16.902730940000001</v>
       </c>
-      <c r="E157" s="4">
+      <c r="F157" s="4">
         <v>11.924880030000001</v>
       </c>
-      <c r="F157" s="5">
+      <c r="G157" s="5">
         <v>88761.14559</v>
       </c>
-      <c r="G157" s="9">
+      <c r="H157" s="9">
         <v>132468.93025264581</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" t="s">
+        <v>338</v>
+      </c>
+      <c r="C158" s="3">
         <v>0.85499999999999998</v>
       </c>
-      <c r="C158" s="4">
+      <c r="D158" s="4">
         <v>75.33</v>
       </c>
-      <c r="D158" s="4">
+      <c r="E158" s="4">
         <v>14.72154999</v>
       </c>
-      <c r="E158" s="4">
+      <c r="F158" s="4">
         <v>13.007195749999999</v>
       </c>
-      <c r="F158" s="5">
+      <c r="G158" s="5">
         <v>32171.246060000001</v>
       </c>
-      <c r="G158" s="9">
+      <c r="H158" s="9">
         <v>38603.550805049468</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" t="s">
+        <v>339</v>
+      </c>
+      <c r="C159" s="3">
         <v>0.92600000000000005</v>
       </c>
-      <c r="C159" s="4">
+      <c r="D159" s="4">
         <v>82.132999999999996</v>
       </c>
-      <c r="D159" s="4">
+      <c r="E159" s="4">
         <v>17.406579969999999</v>
       </c>
-      <c r="E159" s="4">
+      <c r="F159" s="4">
         <v>12.880157240000001</v>
       </c>
-      <c r="F159" s="5">
+      <c r="G159" s="5">
         <v>41586.89849</v>
       </c>
-      <c r="G159" s="9">
+      <c r="H159" s="9">
         <v>47021.720532876527</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" t="s">
+        <v>332</v>
+      </c>
+      <c r="C160" s="3">
         <v>0.56200000000000006</v>
       </c>
-      <c r="C160" s="4">
+      <c r="D160" s="4">
         <v>70.742000000000004</v>
       </c>
-      <c r="D160" s="4">
+      <c r="E160" s="4">
         <v>10.300714449999999</v>
       </c>
-      <c r="E160" s="4">
+      <c r="F160" s="4">
         <v>5.8796802000000001</v>
       </c>
-      <c r="F160" s="5">
+      <c r="G160" s="5">
         <v>2273.3110969999998</v>
       </c>
-      <c r="G160" s="9">
+      <c r="H160" s="9">
         <v>2517.9254210990762</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" t="s">
+        <v>335</v>
+      </c>
+      <c r="C161" s="3">
         <v>0.38</v>
       </c>
-      <c r="C161" s="4">
+      <c r="D161" s="4">
         <v>56.106999999999999</v>
       </c>
-      <c r="D161" s="4">
+      <c r="E161" s="4">
         <v>7.6472323329999998</v>
       </c>
-      <c r="E161" s="4">
+      <c r="F161" s="4">
         <v>1.900300026</v>
       </c>
-      <c r="F161" s="5">
+      <c r="G161" s="5">
         <v>1072.2014610000001</v>
       </c>
-      <c r="G161" s="9">
+      <c r="H161" s="9">
         <v>1387.8137441604974</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" t="s">
+        <v>360</v>
+      </c>
+      <c r="C162" s="3">
         <v>0.71699999999999997</v>
       </c>
-      <c r="C162" s="4">
+      <c r="D162" s="4">
         <v>61.48</v>
       </c>
-      <c r="D162" s="4">
+      <c r="E162" s="4">
         <v>14.263649940000001</v>
       </c>
-      <c r="E162" s="4">
+      <c r="F162" s="4">
         <v>11.606969830000001</v>
       </c>
-      <c r="F162" s="5">
+      <c r="G162" s="5">
         <v>13185.564189999999</v>
       </c>
-      <c r="G162" s="9">
+      <c r="H162" s="9">
         <v>13777.19275205639</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" t="s">
+        <v>330</v>
+      </c>
+      <c r="C163" s="3">
         <v>0.38100000000000001</v>
       </c>
-      <c r="C163" s="4">
+      <c r="D163" s="4">
         <v>55.567</v>
       </c>
-      <c r="D163" s="4">
+      <c r="E163" s="4">
         <v>5.6347701409999997</v>
       </c>
-      <c r="E163" s="4">
+      <c r="F163" s="4">
         <v>5.7261400220000001</v>
       </c>
-      <c r="F163" s="5">
+      <c r="G163" s="5">
         <v>690.66075750000005</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" t="s">
+        <v>247</v>
+      </c>
+      <c r="C164" s="3">
         <v>0.91100000000000003</v>
       </c>
-      <c r="C164" s="4">
+      <c r="D164" s="4">
         <v>83.912000000000006</v>
       </c>
-      <c r="D164" s="4">
+      <c r="E164" s="4">
         <v>17.809059139999999</v>
       </c>
-      <c r="E164" s="4">
+      <c r="F164" s="4">
         <v>10.60540009</v>
       </c>
-      <c r="F164" s="5">
+      <c r="G164" s="5">
         <v>40043.337729999999</v>
       </c>
-      <c r="G164" s="9">
+      <c r="H164" s="9">
         <v>46633.753106540862</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" t="s">
+        <v>289</v>
+      </c>
+      <c r="C165" s="3">
         <v>0.78</v>
       </c>
-      <c r="C165" s="4">
+      <c r="D165" s="4">
         <v>76.61</v>
       </c>
-      <c r="D165" s="4">
+      <c r="E165" s="4">
         <v>13.64182201</v>
       </c>
-      <c r="E165" s="4">
+      <c r="F165" s="4">
         <v>11.24960995</v>
       </c>
-      <c r="F165" s="5">
+      <c r="G165" s="5">
         <v>11899.49847</v>
       </c>
-      <c r="G165" s="9">
+      <c r="H165" s="9">
         <v>13249.408518715256</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" t="s">
+        <v>329</v>
+      </c>
+      <c r="C166" s="3">
         <v>0.51600000000000001</v>
       </c>
-      <c r="C166" s="4">
+      <c r="D166" s="4">
         <v>65.578000000000003</v>
       </c>
-      <c r="D166" s="4">
+      <c r="E166" s="4">
         <v>8.501687381</v>
       </c>
-      <c r="E166" s="4">
+      <c r="F166" s="4">
         <v>3.87</v>
       </c>
-      <c r="F166" s="5">
+      <c r="G166" s="5">
         <v>3514.7658689999998</v>
       </c>
-      <c r="G166" s="9">
+      <c r="H166" s="9">
         <v>3132.0771484375</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" t="s">
+        <v>337</v>
+      </c>
+      <c r="C167" s="3">
         <v>0.69</v>
       </c>
-      <c r="C167" s="4">
+      <c r="D167" s="4">
         <v>70.289000000000001</v>
       </c>
-      <c r="D167" s="4">
+      <c r="E167" s="4">
         <v>10.95909977</v>
       </c>
-      <c r="E167" s="4">
+      <c r="F167" s="4">
         <v>8.3886318039999992</v>
       </c>
-      <c r="F167" s="5">
+      <c r="G167" s="5">
         <v>12309.996590000001</v>
       </c>
-      <c r="G167" s="9">
+      <c r="H167" s="9">
         <v>18742.587376036852</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" t="s">
+        <v>340</v>
+      </c>
+      <c r="C168" s="3">
         <v>0.95199999999999996</v>
       </c>
-      <c r="C168" s="4">
+      <c r="D168" s="4">
         <v>83.504999999999995</v>
       </c>
-      <c r="D168" s="4">
+      <c r="E168" s="4">
         <v>19.036769870000001</v>
       </c>
-      <c r="E168" s="4">
+      <c r="F168" s="4">
         <v>12.673720149999999</v>
       </c>
-      <c r="F168" s="5">
+      <c r="G168" s="5">
         <v>56995.847959999999</v>
       </c>
-      <c r="G168" s="9">
+      <c r="H168" s="9">
         <v>63158.362404783598</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" t="s">
+        <v>227</v>
+      </c>
+      <c r="C169" s="3">
         <v>0.96699999999999997</v>
       </c>
-      <c r="C169" s="4">
+      <c r="D169" s="4">
         <v>84.254999999999995</v>
       </c>
-      <c r="D169" s="4">
+      <c r="E169" s="4">
         <v>16.5837307</v>
       </c>
-      <c r="E169" s="4">
+      <c r="F169" s="4">
         <v>13.904066220000001</v>
       </c>
-      <c r="F169" s="5">
+      <c r="G169" s="5">
         <v>69432.786689999994</v>
       </c>
-      <c r="G169" s="9">
+      <c r="H169" s="9">
         <v>82128.83561021513</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" t="s">
+        <v>341</v>
+      </c>
+      <c r="C170" s="3">
         <v>0.55700000000000005</v>
       </c>
-      <c r="C170" s="4">
+      <c r="D170" s="4">
         <v>72.3</v>
       </c>
-      <c r="D170" s="4">
+      <c r="E170" s="4">
         <v>7.4187545269999999</v>
       </c>
-      <c r="E170" s="4">
+      <c r="F170" s="4">
         <v>5.7367975869999999</v>
       </c>
-      <c r="F170" s="5">
+      <c r="G170" s="5">
         <v>3594.1067899999998</v>
       </c>
-      <c r="G170" s="9">
+      <c r="H170" s="9">
         <v>4454.8537327146378</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" t="s">
+        <v>345</v>
+      </c>
+      <c r="C171" s="3">
         <v>0.67900000000000005</v>
       </c>
-      <c r="C171" s="4">
+      <c r="D171" s="4">
         <v>71.287999999999997</v>
       </c>
-      <c r="D171" s="4">
+      <c r="E171" s="4">
         <v>10.861026369999999</v>
       </c>
-      <c r="E171" s="4">
+      <c r="F171" s="4">
         <v>11.289550889999999</v>
       </c>
-      <c r="F171" s="5">
+      <c r="G171" s="5">
         <v>4807.2139230000002</v>
       </c>
-      <c r="G171" s="9">
+      <c r="H171" s="9">
         <v>4213.7561836268687</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" t="s">
+        <v>350</v>
+      </c>
+      <c r="C172" s="3">
         <v>0.53200000000000003</v>
       </c>
-      <c r="C172" s="4">
+      <c r="D172" s="4">
         <v>66.781999999999996</v>
       </c>
-      <c r="D172" s="4">
+      <c r="E172" s="4">
         <v>8.5857400889999997</v>
       </c>
-      <c r="E172" s="4">
+      <c r="F172" s="4">
         <v>5.6399679630000001</v>
       </c>
-      <c r="F172" s="5">
+      <c r="G172" s="5">
         <v>2578.1560060000002</v>
       </c>
-      <c r="G172" s="9">
+      <c r="H172" s="9">
         <v>3546.98095703125</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" t="s">
+        <v>344</v>
+      </c>
+      <c r="C173" s="3">
         <v>0.80300000000000005</v>
       </c>
-      <c r="C173" s="4">
+      <c r="D173" s="4">
         <v>79.680000000000007</v>
       </c>
-      <c r="D173" s="4">
+      <c r="E173" s="4">
         <v>15.581310269999999</v>
       </c>
-      <c r="E173" s="4">
+      <c r="F173" s="4">
         <v>8.834560711</v>
       </c>
-      <c r="F173" s="5">
+      <c r="G173" s="5">
         <v>16886.511129999999</v>
       </c>
-      <c r="G173" s="9">
+      <c r="H173" s="9">
         <v>20741.523527051075</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B174" s="3">
+      <c r="C174" s="3">
         <v>0.56599999999999995</v>
       </c>
-      <c r="C174" s="4">
+      <c r="D174" s="4">
         <v>69.055999999999997</v>
       </c>
-      <c r="D174" s="4">
+      <c r="E174" s="4">
         <v>13.24177562</v>
       </c>
-      <c r="E174" s="4">
+      <c r="F174" s="4">
         <v>6.0200597509999998</v>
       </c>
-      <c r="F174" s="5">
+      <c r="G174" s="5">
         <v>1629.160441</v>
       </c>
-      <c r="G174" s="9">
+      <c r="H174" s="9">
         <v>5344.1369515945571</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B175" s="3">
+      <c r="C175" s="3">
         <v>0.54700000000000004</v>
       </c>
-      <c r="C175" s="4">
+      <c r="D175" s="4">
         <v>61.588000000000001</v>
       </c>
-      <c r="D175" s="4">
+      <c r="E175" s="4">
         <v>12.96236085</v>
       </c>
-      <c r="E175" s="4">
+      <c r="F175" s="4">
         <v>5.5903140110000002</v>
       </c>
-      <c r="F175" s="5">
+      <c r="G175" s="5">
         <v>2214.2336489999998</v>
       </c>
-      <c r="G175" s="9">
+      <c r="H175" s="9">
         <v>2662.2591713482248</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" t="s">
+        <v>343</v>
+      </c>
+      <c r="C176" s="3">
         <v>0.73899999999999999</v>
       </c>
-      <c r="C176" s="4">
+      <c r="D176" s="4">
         <v>71.27</v>
       </c>
-      <c r="D176" s="4">
+      <c r="E176" s="4">
         <v>16.28749084</v>
       </c>
-      <c r="E176" s="4">
+      <c r="F176" s="4">
         <v>10.88028609</v>
       </c>
-      <c r="F176" s="5">
+      <c r="G176" s="5">
         <v>6360.1789049999998</v>
       </c>
-      <c r="G176" s="9">
+      <c r="H176" s="9">
         <v>6901.7385556607396</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" t="s">
+        <v>347</v>
+      </c>
+      <c r="C177" s="3">
         <v>0.81399999999999995</v>
       </c>
-      <c r="C177" s="4">
+      <c r="D177" s="4">
         <v>74.707999999999998</v>
       </c>
-      <c r="D177" s="4">
+      <c r="E177" s="4">
         <v>14.1010764</v>
       </c>
-      <c r="E177" s="4">
+      <c r="F177" s="4">
         <v>11.73800258</v>
       </c>
-      <c r="F177" s="5">
+      <c r="G177" s="5">
         <v>22473.038759999999</v>
       </c>
-      <c r="G177" s="9">
+      <c r="H177" s="9">
         <v>31323.277264657961</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" t="s">
+        <v>348</v>
+      </c>
+      <c r="C178" s="3">
         <v>0.73199999999999998</v>
       </c>
-      <c r="C178" s="4">
+      <c r="D178" s="4">
         <v>74.263000000000005</v>
       </c>
-      <c r="D178" s="4">
+      <c r="E178" s="4">
         <v>14.61953746</v>
       </c>
-      <c r="E178" s="4">
+      <c r="F178" s="4">
         <v>7.9533931730000003</v>
       </c>
-      <c r="F178" s="5">
+      <c r="G178" s="5">
         <v>10296.649600000001</v>
       </c>
-      <c r="G178" s="9">
+      <c r="H178" s="9">
         <v>12632.039221410894</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" t="s">
+        <v>349</v>
+      </c>
+      <c r="C179" s="3">
         <v>0.85499999999999998</v>
       </c>
-      <c r="C179" s="4">
+      <c r="D179" s="4">
         <v>78.474999999999994</v>
       </c>
-      <c r="D179" s="4">
+      <c r="E179" s="4">
         <v>19.684949870000001</v>
       </c>
-      <c r="E179" s="4">
+      <c r="F179" s="4">
         <v>8.8112841290000006</v>
       </c>
-      <c r="F179" s="5">
+      <c r="G179" s="5">
         <v>32833.53512</v>
       </c>
-      <c r="G179" s="9">
+      <c r="H179" s="9">
         <v>32718.746816611139</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" t="s">
+        <v>346</v>
+      </c>
+      <c r="C180" s="3">
         <v>0.74399999999999999</v>
       </c>
-      <c r="C180" s="4">
+      <c r="D180" s="4">
         <v>69.41</v>
       </c>
-      <c r="D180" s="4">
+      <c r="E180" s="4">
         <v>13.240579609999999</v>
       </c>
-      <c r="E180" s="4">
+      <c r="F180" s="4">
         <v>11.14299353</v>
       </c>
-      <c r="F180" s="5">
+      <c r="G180" s="5">
         <v>12859.87406</v>
       </c>
-      <c r="G180" s="9">
+      <c r="H180" s="9">
         <v>17119.574494614222</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B181" s="3">
+      <c r="C181" s="3">
         <v>0.65300000000000002</v>
       </c>
-      <c r="C181" s="4">
+      <c r="D181" s="4">
         <v>64.853999999999999</v>
       </c>
-      <c r="D181" s="4">
+      <c r="E181" s="4">
         <v>12.101580139999999</v>
       </c>
-      <c r="E181" s="4">
+      <c r="F181" s="4">
         <v>10.644586260000001</v>
       </c>
-      <c r="F181" s="5">
+      <c r="G181" s="5">
         <v>4754.4537319999999</v>
       </c>
-      <c r="G181" s="9">
+      <c r="H181" s="9">
         <v>5498.1789208258479</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" t="s">
+        <v>351</v>
+      </c>
+      <c r="C182" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C182" s="4">
+      <c r="D182" s="4">
         <v>63.637999999999998</v>
       </c>
-      <c r="D182" s="4">
+      <c r="E182" s="4">
         <v>11.495532369999999</v>
       </c>
-      <c r="E182" s="4">
+      <c r="F182" s="4">
         <v>6.235476362</v>
       </c>
-      <c r="F182" s="5">
+      <c r="G182" s="5">
         <v>2240.5854039999999</v>
       </c>
-      <c r="G182" s="9">
+      <c r="H182" s="9">
         <v>2724.9060956840863</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" t="s">
+        <v>352</v>
+      </c>
+      <c r="C183" s="3">
         <v>0.73399999999999999</v>
       </c>
-      <c r="C183" s="4">
+      <c r="D183" s="4">
         <v>68.563999999999993</v>
       </c>
-      <c r="D183" s="4">
+      <c r="E183" s="4">
         <v>13.328009610000001</v>
       </c>
-      <c r="E183" s="4">
+      <c r="F183" s="4">
         <v>11.123301229999999</v>
       </c>
-      <c r="F183" s="5">
+      <c r="G183" s="5">
         <v>11416.2168</v>
       </c>
-      <c r="G183" s="9">
+      <c r="H183" s="9">
         <v>13787.12109375</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" t="s">
+        <v>204</v>
+      </c>
+      <c r="C184" s="3">
         <v>0.93700000000000006</v>
       </c>
-      <c r="C184" s="4">
+      <c r="D184" s="4">
         <v>79.195999999999998</v>
       </c>
-      <c r="D184" s="4">
+      <c r="E184" s="4">
         <v>17.208139419999998</v>
       </c>
-      <c r="E184" s="4">
+      <c r="F184" s="4">
         <v>12.77375031</v>
       </c>
-      <c r="F184" s="5">
+      <c r="G184" s="5">
         <v>74103.714940000005</v>
       </c>
-      <c r="G184" s="9">
+      <c r="H184" s="9">
         <v>68867.82593050749</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" t="s">
+        <v>254</v>
+      </c>
+      <c r="C185" s="3">
         <v>0.94</v>
       </c>
-      <c r="C185" s="4">
+      <c r="D185" s="4">
         <v>82.156000000000006</v>
       </c>
-      <c r="D185" s="4">
+      <c r="E185" s="4">
         <v>17.634290700000001</v>
       </c>
-      <c r="E185" s="4">
+      <c r="F185" s="4">
         <v>13.4061203</v>
       </c>
-      <c r="F185" s="5">
+      <c r="G185" s="5">
         <v>46623.902690000003</v>
       </c>
-      <c r="G185" s="9">
+      <c r="H185" s="9">
         <v>52842.976360567598</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" t="s">
+        <v>354</v>
+      </c>
+      <c r="C186" s="3">
         <v>0.92700000000000005</v>
       </c>
-      <c r="C186" s="4">
+      <c r="D186" s="4">
         <v>78.203000000000003</v>
       </c>
-      <c r="D186" s="4">
+      <c r="E186" s="4">
         <v>16.412740710000001</v>
       </c>
-      <c r="E186" s="4">
+      <c r="F186" s="4">
         <v>13.57549953</v>
       </c>
-      <c r="F186" s="5">
+      <c r="G186" s="5">
         <v>65564.937980000002</v>
       </c>
-      <c r="G186" s="9">
+      <c r="H186" s="9">
         <v>72841.924312708201</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" t="s">
+        <v>353</v>
+      </c>
+      <c r="C187" s="3">
         <v>0.83</v>
       </c>
-      <c r="C187" s="4">
+      <c r="D187" s="4">
         <v>78</v>
       </c>
-      <c r="D187" s="4">
+      <c r="E187" s="4">
         <v>17.35183907</v>
       </c>
-      <c r="E187" s="4">
+      <c r="F187" s="4">
         <v>9.0582197820000001</v>
       </c>
-      <c r="F187" s="5">
+      <c r="G187" s="5">
         <v>22206.990290000002</v>
       </c>
-      <c r="G187" s="9">
+      <c r="H187" s="9">
         <v>30879.928817899374</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" t="s">
+        <v>355</v>
+      </c>
+      <c r="C188" s="3">
         <v>0.72699999999999998</v>
       </c>
-      <c r="C188" s="4">
+      <c r="D188" s="4">
         <v>71.674000000000007</v>
       </c>
-      <c r="D188" s="4">
+      <c r="E188" s="4">
         <v>11.99291039</v>
       </c>
-      <c r="E188" s="4">
+      <c r="F188" s="4">
         <v>11.911149979999999</v>
       </c>
-      <c r="F188" s="5">
+      <c r="G188" s="5">
         <v>8055.9102650000004</v>
       </c>
-      <c r="G188" s="9">
+      <c r="H188" s="9">
         <v>9607.5616727372835</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" t="s">
+        <v>358</v>
+      </c>
+      <c r="C189" s="3">
         <v>0.61399999999999999</v>
       </c>
-      <c r="C189" s="4">
+      <c r="D189" s="4">
         <v>70.492000000000004</v>
       </c>
-      <c r="D189" s="4">
+      <c r="E189" s="4">
         <v>11.81160992</v>
       </c>
-      <c r="E189" s="4">
+      <c r="F189" s="4">
         <v>7.1832097270000004</v>
       </c>
-      <c r="F189" s="5">
+      <c r="G189" s="5">
         <v>3243.9804939999999</v>
       </c>
-      <c r="G189" s="9">
+      <c r="H189" s="9">
         <v>3122.6400754069919</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" t="s">
+        <v>356</v>
+      </c>
+      <c r="C190" s="3">
         <v>0.69899999999999995</v>
       </c>
-      <c r="C190" s="4">
+      <c r="D190" s="4">
         <v>71.105000000000004</v>
       </c>
-      <c r="D190" s="4">
+      <c r="E190" s="4">
         <v>13.50206427</v>
       </c>
-      <c r="E190" s="4">
+      <c r="F190" s="4">
         <v>9.6281544209999996</v>
       </c>
-      <c r="F190" s="5">
+      <c r="G190" s="5">
         <v>6184.1360000000004</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" t="s">
+        <v>357</v>
+      </c>
+      <c r="C191" s="3">
         <v>0.72599999999999998</v>
       </c>
-      <c r="C191" s="4">
+      <c r="D191" s="4">
         <v>74.58</v>
       </c>
-      <c r="D191" s="4">
+      <c r="E191" s="4">
         <v>13.05294705</v>
       </c>
-      <c r="E191" s="4">
+      <c r="F191" s="4">
         <v>8.4553487940000007</v>
       </c>
-      <c r="F191" s="5">
+      <c r="G191" s="5">
         <v>10813.98273</v>
       </c>
-      <c r="G191" s="9">
+      <c r="H191" s="9">
         <v>12930.256218568686</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" t="s">
+        <v>359</v>
+      </c>
+      <c r="C192" s="3">
         <v>0.42399999999999999</v>
       </c>
-      <c r="C192" s="4">
+      <c r="D192" s="4">
         <v>63.72</v>
       </c>
-      <c r="D192" s="4">
+      <c r="E192" s="4">
         <v>7.935313345</v>
       </c>
-      <c r="E192" s="4">
+      <c r="F192" s="4">
         <v>2.7768259579999999</v>
       </c>
-      <c r="F192" s="5">
+      <c r="G192" s="5">
         <v>1105.7634350000001</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" t="s">
+        <v>361</v>
+      </c>
+      <c r="C193" s="3">
         <v>0.56899999999999995</v>
       </c>
-      <c r="C193" s="4">
+      <c r="D193" s="4">
         <v>61.802999999999997</v>
       </c>
-      <c r="D193" s="4">
+      <c r="E193" s="4">
         <v>11.01797045</v>
       </c>
-      <c r="E193" s="4">
+      <c r="F193" s="4">
         <v>7.2848931769999998</v>
       </c>
-      <c r="F193" s="5">
+      <c r="G193" s="5">
         <v>3157.35862</v>
       </c>
-      <c r="G193" s="9">
+      <c r="H193" s="9">
         <v>3585.1237908434655</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194" t="s">
+        <v>362</v>
+      </c>
+      <c r="C194" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C194" s="4">
+      <c r="D194" s="4">
         <v>59.390999999999998</v>
       </c>
-      <c r="D194" s="4">
+      <c r="E194" s="4">
         <v>11.02558696</v>
       </c>
-      <c r="E194" s="4">
+      <c r="F194" s="4">
         <v>8.8077626210000002</v>
       </c>
-      <c r="F194" s="5">
+      <c r="G194" s="5">
         <v>2078.9180630000001</v>
       </c>
-      <c r="G194" s="9">
+      <c r="H194" s="9">
         <v>3323.1219315623971</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F194">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G194">
     <sortCondition ref="A189:A194"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
